--- a/Result sheet.xlsx
+++ b/Result sheet.xlsx
@@ -9,25 +9,67 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Exam 1" sheetId="1" r:id="rId1"/>
+    <sheet name="IndividualMarkSheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="H.W 8.9" sheetId="6" r:id="rId3"/>
-    <sheet name="Exam 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Exam 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="11" r:id="rId6"/>
+    <sheet name="short in" sheetId="12" r:id="rId7"/>
+    <sheet name="H.W 8.9" sheetId="6" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_H.W8.9A1F211" hidden="1">'H.W 8.9'!$A$1:$F$21</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Range" name="Range" connection="WorksheetConnection_H.W 8.9!$A$1:$F$21"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" name="WorksheetConnection_H.W 8.9!$A$1:$F$21" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Range" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_H.W8.9A1F211"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -193,6 +235,81 @@
   <si>
     <t>STATUS</t>
   </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Sub.Code</t>
+  </si>
+  <si>
+    <t>Part1</t>
+  </si>
+  <si>
+    <t>Part 2</t>
+  </si>
+  <si>
+    <t>Bangla</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>A.Marks</t>
+  </si>
+  <si>
+    <t>CGPA</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>Sum of MARKS</t>
+  </si>
+  <si>
+    <t>Sum of ID</t>
+  </si>
+  <si>
+    <t>Sum of GPA</t>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,6 +426,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,22 +685,5034 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D12" totalsRowShown="0">
-  <autoFilter ref="A1:D12"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Marks"/>
-    <tableColumn id="4" name="Status">
-      <calculatedColumnFormula>IF(D2&gt;=70,"pass","fail")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Result sheet.xlsx]Sheet2!PivotTable5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of GPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A-</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B-</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B+</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C+</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D61-4FBF-9826-F0B7ABA40699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of ID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-3A71-4A41-A4D4-6D98AFEB30A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A-</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B-</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B+</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C+</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D61-4FBF-9826-F0B7ABA40699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Result sheet.xlsx]Sheet4!PivotTable7</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$4:$A$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A.KARIM</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ROGINA</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SM KAISER</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>YASMIN</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>A.RAHIM</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>MD. MOHOSIN</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>MD. YASIN</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>MOWSUMI</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MAHIMA</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>MD.JOY</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>A.MATIN</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>MD.ARIF</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>MD.KAMAL</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>A. RAHOMAN</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>MD.SOHAN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>A.KUDUS</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>JORINA</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>MD. MOHON</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>A. JABOR</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>MD.RIDOY</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>A-</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>A+</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>B-</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>B+</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>C+</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>F</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B86E-4E19-9184-C07557C7987C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="683987000"/>
+        <c:axId val="683991920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="683987000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683991920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="683991920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683987000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Result sheet.xlsx]Sheet6!PivotTable8</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$4:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A-</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B-</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>B+</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C+</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AA1-423D-8469-E8A754FE84ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="684011928"/>
+        <c:axId val="684015864"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="684011928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684015864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="684015864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684011928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Windows User" refreshedDate="43353.740135300926" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Sum of GPA]" caption="Sum of GPA" numFmtId="0" hierarchy="9" level="32767"/>
+    <cacheField name="[Measures].[Sum of ID]" caption="Sum of ID" numFmtId="0" hierarchy="10" level="32767"/>
+    <cacheField name="[Range].[GREAD].[GREAD]" caption="GREAD" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="10">
+        <s v="A"/>
+        <s v="A-"/>
+        <s v="A+"/>
+        <s v="B"/>
+        <s v="B-"/>
+        <s v="B+"/>
+        <s v="C"/>
+        <s v="C+"/>
+        <s v="D"/>
+        <s v="F"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="11">
+    <cacheHierarchy uniqueName="[Range].[ID]" caption="ID" attribute="1" defaultMemberUniqueName="[Range].[ID].[All]" allUniqueName="[Range].[ID].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[NAME]" caption="NAME" attribute="1" defaultMemberUniqueName="[Range].[NAME].[All]" allUniqueName="[Range].[NAME].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[MARKS]" caption="MARKS" attribute="1" defaultMemberUniqueName="[Range].[MARKS].[All]" allUniqueName="[Range].[MARKS].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[GREAD]" caption="GREAD" attribute="1" defaultMemberUniqueName="[Range].[GREAD].[All]" allUniqueName="[Range].[GREAD].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range].[GPA]" caption="GPA" attribute="1" defaultMemberUniqueName="[Range].[GPA].[All]" allUniqueName="[Range].[GPA].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[STATUS]" caption="STATUS" attribute="1" defaultMemberUniqueName="[Range].[STATUS].[All]" allUniqueName="[Range].[STATUS].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of MARKS]" caption="Sum of MARKS" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of GPA]" caption="Sum of GPA" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of ID]" caption="Sum of ID" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Range" caption="Range"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Windows User" refreshedDate="43353.745549768515" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Range].[GREAD].[GREAD]" caption="GREAD" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="10">
+        <s v="A"/>
+        <s v="A-"/>
+        <s v="A+"/>
+        <s v="B"/>
+        <s v="B-"/>
+        <s v="B+"/>
+        <s v="C"/>
+        <s v="C+"/>
+        <s v="D"/>
+        <s v="F"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Sum of MARKS]" caption="Sum of MARKS" numFmtId="0" hierarchy="8" level="32767"/>
+    <cacheField name="[Range].[NAME].[NAME]" caption="NAME" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems count="20">
+        <s v="A.KARIM"/>
+        <s v="ROGINA"/>
+        <s v="SM KAISER"/>
+        <s v="YASMIN"/>
+        <s v="A.RAHIM"/>
+        <s v="MD. MOHOSIN"/>
+        <s v="MD. YASIN"/>
+        <s v="MOWSUMI"/>
+        <s v="MAHIMA"/>
+        <s v="MD.JOY"/>
+        <s v="A.MATIN"/>
+        <s v="MD.ARIF"/>
+        <s v="MD.KAMAL"/>
+        <s v="A. RAHOMAN"/>
+        <s v="MD.SOHAN"/>
+        <s v="A.KUDUS"/>
+        <s v="JORINA"/>
+        <s v="MD. MOHON"/>
+        <s v="A. JABOR"/>
+        <s v="MD.RIDOY"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="11">
+    <cacheHierarchy uniqueName="[Range].[ID]" caption="ID" attribute="1" defaultMemberUniqueName="[Range].[ID].[All]" allUniqueName="[Range].[ID].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[NAME]" caption="NAME" attribute="1" defaultMemberUniqueName="[Range].[NAME].[All]" allUniqueName="[Range].[NAME].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range].[MARKS]" caption="MARKS" attribute="1" defaultMemberUniqueName="[Range].[MARKS].[All]" allUniqueName="[Range].[MARKS].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[GREAD]" caption="GREAD" attribute="1" defaultMemberUniqueName="[Range].[GREAD].[All]" allUniqueName="[Range].[GREAD].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range].[GPA]" caption="GPA" attribute="1" defaultMemberUniqueName="[Range].[GPA].[All]" allUniqueName="[Range].[GPA].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[STATUS]" caption="STATUS" attribute="1" defaultMemberUniqueName="[Range].[STATUS].[All]" allUniqueName="[Range].[STATUS].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of MARKS]" caption="Sum of MARKS" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of GPA]" caption="Sum of GPA" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of ID]" caption="Sum of ID" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Range" caption="Range"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Windows User" refreshedDate="43353.747381250003" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="2">
+    <cacheField name="[Range].[GREAD].[GREAD]" caption="GREAD" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="10">
+        <s v="A"/>
+        <s v="A-"/>
+        <s v="A+"/>
+        <s v="B"/>
+        <s v="B-"/>
+        <s v="B+"/>
+        <s v="C"/>
+        <s v="C+"/>
+        <s v="D"/>
+        <s v="F"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Sum of GPA]" caption="Sum of GPA" numFmtId="0" hierarchy="9" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="11">
+    <cacheHierarchy uniqueName="[Range].[ID]" caption="ID" attribute="1" defaultMemberUniqueName="[Range].[ID].[All]" allUniqueName="[Range].[ID].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[NAME]" caption="NAME" attribute="1" defaultMemberUniqueName="[Range].[NAME].[All]" allUniqueName="[Range].[NAME].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[MARKS]" caption="MARKS" attribute="1" defaultMemberUniqueName="[Range].[MARKS].[All]" allUniqueName="[Range].[MARKS].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[GREAD]" caption="GREAD" attribute="1" defaultMemberUniqueName="[Range].[GREAD].[All]" allUniqueName="[Range].[GREAD].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range].[GPA]" caption="GPA" attribute="1" defaultMemberUniqueName="[Range].[GPA].[All]" allUniqueName="[Range].[GPA].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[STATUS]" caption="STATUS" attribute="1" defaultMemberUniqueName="[Range].[STATUS].[All]" allUniqueName="[Range].[STATUS].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of MARKS]" caption="Sum of MARKS" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of GPA]" caption="Sum of GPA" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of ID]" caption="Sum of ID" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Range" caption="Range"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of GPA" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of ID" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="22">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="11">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_H.W 8.9!$A$1:$F$21">
+        <x15:activeTabTopLevelEntity name="[Range]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of MARKS" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="11">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+    <rowHierarchyUsage hierarchyUsage="1"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_H.W 8.9!$A$1:$F$21">
+        <x15:activeTabTopLevelEntity name="[Range]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of GPA" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="11">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_H.W 8.9!$A$1:$F$21">
+        <x15:activeTabTopLevelEntity name="[Range]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F13" totalsRowShown="0">
   <autoFilter ref="A1:F13"/>
   <tableColumns count="6">
@@ -585,24 +5731,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F22"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="NAME" dataDxfId="4"/>
-    <tableColumn id="3" name="MARKS" dataDxfId="3"/>
-    <tableColumn id="4" name="GREAD" dataDxfId="2"/>
-    <tableColumn id="5" name="GPA" dataDxfId="1"/>
-    <tableColumn id="6" name="STATUS" dataDxfId="0">
-      <calculatedColumnFormula>IF(D2="A+","EXCELENT",IF(D2="A","BEST",IF(D2="A-","BEST",IF(D2="B+","BETTER",IF(D2="B","GOOD",IF(D2="B-","GOOD",IF(D2="C+","NOT BAD",IF(D2="C","BAD",IF(D2="D","PASS",IF(D2="F","FAIL",))))))))))</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G6" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:G6"/>
   <tableColumns count="7">
@@ -621,6 +5750,47 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F21" totalsRowShown="0">
+  <autoFilter ref="A1:F21"/>
+  <sortState ref="A2:F21">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="NAME"/>
+    <tableColumn id="3" name="MARKS"/>
+    <tableColumn id="4" name="GREAD">
+      <calculatedColumnFormula>IF(C2&gt;=80,"A+",IF(C2&gt;=75,"A",IF(C2&gt;=70,"A-",IF(C2&gt;=65,"B+",IF(C2&gt;=60,"B",IF(C2&gt;=55,"B-",IF(C2&gt;=50,"C+",IF(C2&gt;=45,"C",IF(C2&gt;=40,"D",IF(C2&lt;40,"F"))))))))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="GPA">
+      <calculatedColumnFormula>IF(D2="A+",4,IF(D2="A",3.75,IF(D2="A-",3.5,IF(D2="B+",3.25,IF(D2="B",3,IF(D2="B-",2.75,IF(D2="C+",2.5,IF(D2="C",2.25,IF(D2="D",2,IF(D2="F",0,))))))))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="STATUS">
+      <calculatedColumnFormula>IF(D2="A+","EXCELENT",IF(D2="A","BEST",IF(D2="A-","BEST",IF(D2="B+","BETTER",IF(D2="B","GOOD",IF(D2="B-","GOOD",IF(D2="C+","NOT BAD",IF(D2="C","BAD",IF(D2="D","PASS",IF(D2="F","FAIL",))))))))))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F22"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="NAME" dataDxfId="4"/>
+    <tableColumn id="3" name="MARKS" dataDxfId="3"/>
+    <tableColumn id="4" name="GREAD" dataDxfId="2"/>
+    <tableColumn id="5" name="GPA" dataDxfId="1"/>
+    <tableColumn id="6" name="STATUS" dataDxfId="0">
+      <calculatedColumnFormula>IF(D2="A+","EXCELENT",IF(D2="A","BEST",IF(D2="A-","BEST",IF(D2="B+","BETTER",IF(D2="B","GOOD",IF(D2="B-","GOOD",IF(D2="C+","NOT BAD",IF(D2="C","BAD",IF(D2="D","PASS",IF(D2="F","FAIL",))))))))))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -887,168 +6057,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="10"/>
+    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="10" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>1201</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(C2:D2)</f>
+        <v>77.5</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>IF(E2&gt;=80,"A+",IF(E2&gt;=70,"A",IF(E2&gt;=60,"B+",IF(E2&gt;=50,"B",IF(E2&gt;=40,"C",IF(E2&lt;40,"F",))))))</f>
+        <v>A</v>
+      </c>
+      <c r="G2" s="19">
+        <f>IF(E2&gt;=80,5,IF(E2&gt;=70,4,IF(E2&gt;=60,3.5,IF(E2&gt;=50,3,IF(E2&gt;=40,2,IF(E2&lt;40,"Fail",))))))</f>
+        <v>4</v>
+      </c>
+      <c r="H2" s="25">
+        <f>SUM(G2:G5)/4</f>
+        <v>4</v>
+      </c>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1203</v>
       </c>
       <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">AVERAGE(C3:D3)</f>
+        <v>70</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F5" si="1">IF(E3&gt;=80,"A+",IF(E3&gt;=70,"A",IF(E3&gt;=60,"B+",IF(E3&gt;=50,"B",IF(E3&gt;=40,"C",IF(E3&lt;40,"F",))))))</f>
+        <v>A</v>
+      </c>
+      <c r="G3" s="19">
+        <f t="shared" ref="G3:G5" si="2">IF(E3&gt;=80,5,IF(E3&gt;=70,4,IF(E3&gt;=60,3.5,IF(E3&gt;=50,3,IF(E3&gt;=40,2,IF(E3&lt;40,"Fail",))))))</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="G4" s="19">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1209</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>94</v>
+      </c>
+      <c r="D5">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+      <c r="G5" s="19">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>70</v>
-      </c>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>66</v>
-      </c>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>65</v>
-      </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>75</v>
-      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6"/>
+      <c r="C6"/>
       <c r="D6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>95</v>
-      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" s="25"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7"/>
+      <c r="C7"/>
       <c r="D7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>80</v>
-      </c>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>76</v>
-      </c>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>72</v>
-      </c>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>62</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12">
-        <f t="shared" ref="D12" ca="1" si="0">IF(D12&gt;=70,"pass","fail")</f>
-        <v>0</v>
-      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G6:G7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1343,516 +6535,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>13901</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="13">
-        <v>75</v>
-      </c>
-      <c r="D2" s="14" t="str">
-        <f>IF(C2&gt;=80,"A+",IF(C2&gt;=75,"A",IF(C2&gt;=70,"A-",IF(C2&gt;=65,"B+",IF(C2&gt;=60,"B",IF(C2&gt;=55,"B-",IF(C2&gt;=50,"C+",IF(C2&gt;=45,"C",IF(C2&gt;=40,"D",IF(C2&lt;40,"F"))))))))))</f>
-        <v>A</v>
-      </c>
-      <c r="E2" s="15">
-        <f>IF(D2="A+",4,IF(D2="A",3.75,IF(D2="A-",3.5,IF(D2="B+",3.25,IF(D2="B",3,IF(D2="B-",2.75,IF(D2="C+",2.5,IF(D2="C",2.25,IF(D2="D",2,IF(D2="F",0,))))))))))</f>
-        <v>3.75</v>
-      </c>
-      <c r="F2" s="18" t="str">
-        <f>IF(D2="A+","EXCELENT",IF(D2="A","BEST",IF(D2="A-","BEST",IF(D2="B+","BETTER",IF(D2="B","GOOD",IF(D2="B-","GOOD",IF(D2="C+","NOT BAD",IF(D2="C","BAD",IF(D2="D","PASS",IF(D2="F","FAIL",))))))))))</f>
-        <v>BEST</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>13902</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="13">
-        <v>86</v>
-      </c>
-      <c r="D3" s="14" t="str">
-        <f>IF(C3&gt;=80,"A+",IF(C3&gt;=75,"A",IF(C3&gt;=70,"A-",IF(C3&gt;=65,"B+",IF(C3&gt;=60,"B",IF(C3&gt;=55,"B-",IF(C3&gt;=50,"C+",IF(C3&gt;=45,"C",IF(C3&gt;=40,"D",IF(C3&lt;40,"F"))))))))))</f>
-        <v>A+</v>
-      </c>
-      <c r="E3" s="15">
-        <f>IF(D3="A+",4,IF(D3="A",3.75,IF(D3="A-",3.5,IF(D3="B+",3.25,IF(D3="B",3,IF(D3="B-",2.75,IF(D3="C+",2.5,IF(D3="C",2.25,IF(D3="D",2,IF(D3="F",0,))))))))))</f>
-        <v>4</v>
-      </c>
-      <c r="F3" s="18" t="str">
-        <f>IF(D3="A+","EXCELENT",IF(D3="A","BEST",IF(D3="A-","BEST",IF(D3="B+","BETTER",IF(D3="B","GOOD",IF(D3="B-","GOOD",IF(D3="C+","NOT BAD",IF(D3="C","BAD",IF(D3="D","PASS",IF(D3="F","FAIL",))))))))))</f>
-        <v>EXCELENT</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>13903</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="13">
-        <v>35</v>
-      </c>
-      <c r="D4" s="14" t="str">
-        <f>IF(C4&gt;=80,"A+",IF(C4&gt;=75,"A",IF(C4&gt;=70,"A-",IF(C4&gt;=65,"B+",IF(C4&gt;=60,"B",IF(C4&gt;=55,"B-",IF(C4&gt;=50,"C+",IF(C4&gt;=45,"C",IF(C4&gt;=40,"D",IF(C4&lt;40,"F"))))))))))</f>
-        <v>F</v>
-      </c>
-      <c r="E4" s="15">
-        <f>IF(D4="A+",4,IF(D4="A",3.75,IF(D4="A-",3.5,IF(D4="B+",3.25,IF(D4="B",3,IF(D4="B-",2.75,IF(D4="C+",2.5,IF(D4="C",2.25,IF(D4="D",2,IF(D4="F",0,))))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="18" t="str">
-        <f>IF(D4="A+","EXCELENT",IF(D4="A","BEST",IF(D4="A-","BEST",IF(D4="B+","BETTER",IF(D4="B","GOOD",IF(D4="B-","GOOD",IF(D4="C+","NOT BAD",IF(D4="C","BAD",IF(D4="D","PASS",IF(D4="F","FAIL",))))))))))</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>13904</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="13">
-        <v>42</v>
-      </c>
-      <c r="D5" s="14" t="str">
-        <f>IF(C5&gt;=80,"A+",IF(C5&gt;=75,"A",IF(C5&gt;=70,"A-",IF(C5&gt;=65,"B+",IF(C5&gt;=60,"B",IF(C5&gt;=55,"B-",IF(C5&gt;=50,"C+",IF(C5&gt;=45,"C",IF(C5&gt;=40,"D",IF(C5&lt;40,"F"))))))))))</f>
-        <v>D</v>
-      </c>
-      <c r="E5" s="15">
-        <f>IF(D5="A+",4,IF(D5="A",3.75,IF(D5="A-",3.5,IF(D5="B+",3.25,IF(D5="B",3,IF(D5="B-",2.75,IF(D5="C+",2.5,IF(D5="C",2.25,IF(D5="D",2,IF(D5="F",0,))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="18" t="str">
-        <f>IF(D5="A+","EXCELENT",IF(D5="A","BEST",IF(D5="A-","BEST",IF(D5="B+","BETTER",IF(D5="B","GOOD",IF(D5="B-","GOOD",IF(D5="C+","NOT BAD",IF(D5="C","BAD",IF(D5="D","PASS",IF(D5="F","FAIL",))))))))))</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>13905</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="13">
-        <v>65</v>
-      </c>
-      <c r="D6" s="14" t="str">
-        <f>IF(C6&gt;=80,"A+",IF(C6&gt;=75,"A",IF(C6&gt;=70,"A-",IF(C6&gt;=65,"B+",IF(C6&gt;=60,"B",IF(C6&gt;=55,"B-",IF(C6&gt;=50,"C+",IF(C6&gt;=45,"C",IF(C6&gt;=40,"D",IF(C6&lt;40,"F"))))))))))</f>
-        <v>B+</v>
-      </c>
-      <c r="E6" s="15">
-        <f>IF(D6="A+",4,IF(D6="A",3.75,IF(D6="A-",3.5,IF(D6="B+",3.25,IF(D6="B",3,IF(D6="B-",2.75,IF(D6="C+",2.5,IF(D6="C",2.25,IF(D6="D",2,IF(D6="F",0,))))))))))</f>
-        <v>3.25</v>
-      </c>
-      <c r="F6" s="18" t="str">
-        <f>IF(D6="A+","EXCELENT",IF(D6="A","BEST",IF(D6="A-","BEST",IF(D6="B+","BETTER",IF(D6="B","GOOD",IF(D6="B-","GOOD",IF(D6="C+","NOT BAD",IF(D6="C","BAD",IF(D6="D","PASS",IF(D6="F","FAIL",))))))))))</f>
-        <v>BETTER</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>13906</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="13">
-        <v>48</v>
-      </c>
-      <c r="D7" s="14" t="str">
-        <f>IF(C7&gt;=80,"A+",IF(C7&gt;=75,"A",IF(C7&gt;=70,"A-",IF(C7&gt;=65,"B+",IF(C7&gt;=60,"B",IF(C7&gt;=55,"B-",IF(C7&gt;=50,"C+",IF(C7&gt;=45,"C",IF(C7&gt;=40,"D",IF(C7&lt;40,"F"))))))))))</f>
-        <v>C</v>
-      </c>
-      <c r="E7" s="15">
-        <f>IF(D7="A+",4,IF(D7="A",3.75,IF(D7="A-",3.5,IF(D7="B+",3.25,IF(D7="B",3,IF(D7="B-",2.75,IF(D7="C+",2.5,IF(D7="C",2.25,IF(D7="D",2,IF(D7="F",0,))))))))))</f>
-        <v>2.25</v>
-      </c>
-      <c r="F7" s="18" t="str">
-        <f>IF(D7="A+","EXCELENT",IF(D7="A","BEST",IF(D7="A-","BEST",IF(D7="B+","BETTER",IF(D7="B","GOOD",IF(D7="B-","GOOD",IF(D7="C+","NOT BAD",IF(D7="C","BAD",IF(D7="D","PASS",IF(D7="F","FAIL",))))))))))</f>
-        <v>BAD</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>13907</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="13">
-        <v>92</v>
-      </c>
-      <c r="D8" s="14" t="str">
-        <f>IF(C8&gt;=80,"A+",IF(C8&gt;=75,"A",IF(C8&gt;=70,"A-",IF(C8&gt;=65,"B+",IF(C8&gt;=60,"B",IF(C8&gt;=55,"B-",IF(C8&gt;=50,"C+",IF(C8&gt;=45,"C",IF(C8&gt;=40,"D",IF(C8&lt;40,"F"))))))))))</f>
-        <v>A+</v>
-      </c>
-      <c r="E8" s="15">
-        <f>IF(D8="A+",4,IF(D8="A",3.75,IF(D8="A-",3.5,IF(D8="B+",3.25,IF(D8="B",3,IF(D8="B-",2.75,IF(D8="C+",2.5,IF(D8="C",2.25,IF(D8="D",2,IF(D8="F",0,))))))))))</f>
-        <v>4</v>
-      </c>
-      <c r="F8" s="18" t="str">
-        <f>IF(D8="A+","EXCELENT",IF(D8="A","BEST",IF(D8="A-","BEST",IF(D8="B+","BETTER",IF(D8="B","GOOD",IF(D8="B-","GOOD",IF(D8="C+","NOT BAD",IF(D8="C","BAD",IF(D8="D","PASS",IF(D8="F","FAIL",))))))))))</f>
-        <v>EXCELENT</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>13908</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="13">
-        <v>68</v>
-      </c>
-      <c r="D9" s="14" t="str">
-        <f>IF(C9&gt;=80,"A+",IF(C9&gt;=75,"A",IF(C9&gt;=70,"A-",IF(C9&gt;=65,"B+",IF(C9&gt;=60,"B",IF(C9&gt;=55,"B-",IF(C9&gt;=50,"C+",IF(C9&gt;=45,"C",IF(C9&gt;=40,"D",IF(C9&lt;40,"F"))))))))))</f>
-        <v>B+</v>
-      </c>
-      <c r="E9" s="15">
-        <f>IF(D9="A+",4,IF(D9="A",3.75,IF(D9="A-",3.5,IF(D9="B+",3.25,IF(D9="B",3,IF(D9="B-",2.75,IF(D9="C+",2.5,IF(D9="C",2.25,IF(D9="D",2,IF(D9="F",0,))))))))))</f>
-        <v>3.25</v>
-      </c>
-      <c r="F9" s="18" t="str">
-        <f>IF(D9="A+","EXCELENT",IF(D9="A","BEST",IF(D9="A-","BEST",IF(D9="B+","BETTER",IF(D9="B","GOOD",IF(D9="B-","GOOD",IF(D9="C+","NOT BAD",IF(D9="C","BAD",IF(D9="D","PASS",IF(D9="F","FAIL",))))))))))</f>
-        <v>BETTER</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>13909</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="13">
-        <v>53</v>
-      </c>
-      <c r="D10" s="14" t="str">
-        <f>IF(C10&gt;=80,"A+",IF(C10&gt;=75,"A",IF(C10&gt;=70,"A-",IF(C10&gt;=65,"B+",IF(C10&gt;=60,"B",IF(C10&gt;=55,"B-",IF(C10&gt;=50,"C+",IF(C10&gt;=45,"C",IF(C10&gt;=40,"D",IF(C10&lt;40,"F"))))))))))</f>
-        <v>C+</v>
-      </c>
-      <c r="E10" s="15">
-        <f>IF(D10="A+",4,IF(D10="A",3.75,IF(D10="A-",3.5,IF(D10="B+",3.25,IF(D10="B",3,IF(D10="B-",2.75,IF(D10="C+",2.5,IF(D10="C",2.25,IF(D10="D",2,IF(D10="F",0,))))))))))</f>
-        <v>2.5</v>
-      </c>
-      <c r="F10" s="18" t="str">
-        <f>IF(D10="A+","EXCELENT",IF(D10="A","BEST",IF(D10="A-","BEST",IF(D10="B+","BETTER",IF(D10="B","GOOD",IF(D10="B-","GOOD",IF(D10="C+","NOT BAD",IF(D10="C","BAD",IF(D10="D","PASS",IF(D10="F","FAIL",))))))))))</f>
-        <v>NOT BAD</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>13910</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="13">
-        <v>72</v>
-      </c>
-      <c r="D11" s="14" t="str">
-        <f>IF(C11&gt;=80,"A+",IF(C11&gt;=75,"A",IF(C11&gt;=70,"A-",IF(C11&gt;=65,"B+",IF(C11&gt;=60,"B",IF(C11&gt;=55,"B-",IF(C11&gt;=50,"C+",IF(C11&gt;=45,"C",IF(C11&gt;=40,"D",IF(C11&lt;40,"F"))))))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="E11" s="15">
-        <f>IF(D11="A+",4,IF(D11="A",3.75,IF(D11="A-",3.5,IF(D11="B+",3.25,IF(D11="B",3,IF(D11="B-",2.75,IF(D11="C+",2.5,IF(D11="C",2.25,IF(D11="D",2,IF(D11="F",0,))))))))))</f>
-        <v>3.5</v>
-      </c>
-      <c r="F11" s="18" t="str">
-        <f>IF(D11="A+","EXCELENT",IF(D11="A","BEST",IF(D11="A-","BEST",IF(D11="B+","BETTER",IF(D11="B","GOOD",IF(D11="B-","GOOD",IF(D11="C+","NOT BAD",IF(D11="C","BAD",IF(D11="D","PASS",IF(D11="F","FAIL",))))))))))</f>
-        <v>BEST</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>13911</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="13">
-        <v>42</v>
-      </c>
-      <c r="D12" s="14" t="str">
-        <f>IF(C12&gt;=80,"A+",IF(C12&gt;=75,"A",IF(C12&gt;=70,"A-",IF(C12&gt;=65,"B+",IF(C12&gt;=60,"B",IF(C12&gt;=55,"B-",IF(C12&gt;=50,"C+",IF(C12&gt;=45,"C",IF(C12&gt;=40,"D",IF(C12&lt;40,"F"))))))))))</f>
-        <v>D</v>
-      </c>
-      <c r="E12" s="15">
-        <f>IF(D12="A+",4,IF(D12="A",3.75,IF(D12="A-",3.5,IF(D12="B+",3.25,IF(D12="B",3,IF(D12="B-",2.75,IF(D12="C+",2.5,IF(D12="C",2.25,IF(D12="D",2,IF(D12="F",0,))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="F12" s="18" t="str">
-        <f>IF(D12="A+","EXCELENT",IF(D12="A","BEST",IF(D12="A-","BEST",IF(D12="B+","BETTER",IF(D12="B","GOOD",IF(D12="B-","GOOD",IF(D12="C+","NOT BAD",IF(D12="C","BAD",IF(D12="D","PASS",IF(D12="F","FAIL",))))))))))</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>13912</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="13">
-        <v>39</v>
-      </c>
-      <c r="D13" s="14" t="str">
-        <f>IF(C13&gt;=80,"A+",IF(C13&gt;=75,"A",IF(C13&gt;=70,"A-",IF(C13&gt;=65,"B+",IF(C13&gt;=60,"B",IF(C13&gt;=55,"B-",IF(C13&gt;=50,"C+",IF(C13&gt;=45,"C",IF(C13&gt;=40,"D",IF(C13&lt;40,"F"))))))))))</f>
-        <v>F</v>
-      </c>
-      <c r="E13" s="15">
-        <f>IF(D13="A+",4,IF(D13="A",3.75,IF(D13="A-",3.5,IF(D13="B+",3.25,IF(D13="B",3,IF(D13="B-",2.75,IF(D13="C+",2.5,IF(D13="C",2.25,IF(D13="D",2,IF(D13="F",0,))))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="18" t="str">
-        <f>IF(D13="A+","EXCELENT",IF(D13="A","BEST",IF(D13="A-","BEST",IF(D13="B+","BETTER",IF(D13="B","GOOD",IF(D13="B-","GOOD",IF(D13="C+","NOT BAD",IF(D13="C","BAD",IF(D13="D","PASS",IF(D13="F","FAIL",))))))))))</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>13913</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="13">
-        <v>58</v>
-      </c>
-      <c r="D14" s="14" t="str">
-        <f>IF(C14&gt;=80,"A+",IF(C14&gt;=75,"A",IF(C14&gt;=70,"A-",IF(C14&gt;=65,"B+",IF(C14&gt;=60,"B",IF(C14&gt;=55,"B-",IF(C14&gt;=50,"C+",IF(C14&gt;=45,"C",IF(C14&gt;=40,"D",IF(C14&lt;40,"F"))))))))))</f>
-        <v>B-</v>
-      </c>
-      <c r="E14" s="15">
-        <f>IF(D14="A+",4,IF(D14="A",3.75,IF(D14="A-",3.5,IF(D14="B+",3.25,IF(D14="B",3,IF(D14="B-",2.75,IF(D14="C+",2.5,IF(D14="C",2.25,IF(D14="D",2,IF(D14="F",0,))))))))))</f>
-        <v>2.75</v>
-      </c>
-      <c r="F14" s="18" t="str">
-        <f>IF(D14="A+","EXCELENT",IF(D14="A","BEST",IF(D14="A-","BEST",IF(D14="B+","BETTER",IF(D14="B","GOOD",IF(D14="B-","GOOD",IF(D14="C+","NOT BAD",IF(D14="C","BAD",IF(D14="D","PASS",IF(D14="F","FAIL",))))))))))</f>
-        <v>GOOD</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>13914</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="13">
-        <v>69</v>
-      </c>
-      <c r="D15" s="14" t="str">
-        <f>IF(C15&gt;=80,"A+",IF(C15&gt;=75,"A",IF(C15&gt;=70,"A-",IF(C15&gt;=65,"B+",IF(C15&gt;=60,"B",IF(C15&gt;=55,"B-",IF(C15&gt;=50,"C+",IF(C15&gt;=45,"C",IF(C15&gt;=40,"D",IF(C15&lt;40,"F"))))))))))</f>
-        <v>B+</v>
-      </c>
-      <c r="E15" s="15">
-        <f>IF(D15="A+",4,IF(D15="A",3.75,IF(D15="A-",3.5,IF(D15="B+",3.25,IF(D15="B",3,IF(D15="B-",2.75,IF(D15="C+",2.5,IF(D15="C",2.25,IF(D15="D",2,IF(D15="F",0,))))))))))</f>
-        <v>3.25</v>
-      </c>
-      <c r="F15" s="18" t="str">
-        <f>IF(D15="A+","EXCELENT",IF(D15="A","BEST",IF(D15="A-","BEST",IF(D15="B+","BETTER",IF(D15="B","GOOD",IF(D15="B-","GOOD",IF(D15="C+","NOT BAD",IF(D15="C","BAD",IF(D15="D","PASS",IF(D15="F","FAIL",))))))))))</f>
-        <v>BETTER</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>13915</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="13">
-        <v>70</v>
-      </c>
-      <c r="D16" s="14" t="str">
-        <f>IF(C16&gt;=80,"A+",IF(C16&gt;=75,"A",IF(C16&gt;=70,"A-",IF(C16&gt;=65,"B+",IF(C16&gt;=60,"B",IF(C16&gt;=55,"B-",IF(C16&gt;=50,"C+",IF(C16&gt;=45,"C",IF(C16&gt;=40,"D",IF(C16&lt;40,"F"))))))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="E16" s="15">
-        <f>IF(D16="A+",4,IF(D16="A",3.75,IF(D16="A-",3.5,IF(D16="B+",3.25,IF(D16="B",3,IF(D16="B-",2.75,IF(D16="C+",2.5,IF(D16="C",2.25,IF(D16="D",2,IF(D16="F",0,))))))))))</f>
-        <v>3.5</v>
-      </c>
-      <c r="F16" s="18" t="str">
-        <f>IF(D16="A+","EXCELENT",IF(D16="A","BEST",IF(D16="A-","BEST",IF(D16="B+","BETTER",IF(D16="B","GOOD",IF(D16="B-","GOOD",IF(D16="C+","NOT BAD",IF(D16="C","BAD",IF(D16="D","PASS",IF(D16="F","FAIL",))))))))))</f>
-        <v>BEST</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>13916</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="13">
-        <v>76</v>
-      </c>
-      <c r="D17" s="14" t="str">
-        <f>IF(C17&gt;=80,"A+",IF(C17&gt;=75,"A",IF(C17&gt;=70,"A-",IF(C17&gt;=65,"B+",IF(C17&gt;=60,"B",IF(C17&gt;=55,"B-",IF(C17&gt;=50,"C+",IF(C17&gt;=45,"C",IF(C17&gt;=40,"D",IF(C17&lt;40,"F"))))))))))</f>
-        <v>A</v>
-      </c>
-      <c r="E17" s="15">
-        <f>IF(D17="A+",4,IF(D17="A",3.75,IF(D17="A-",3.5,IF(D17="B+",3.25,IF(D17="B",3,IF(D17="B-",2.75,IF(D17="C+",2.5,IF(D17="C",2.25,IF(D17="D",2,IF(D17="F",0,))))))))))</f>
-        <v>3.75</v>
-      </c>
-      <c r="F17" s="18" t="str">
-        <f>IF(D17="A+","EXCELENT",IF(D17="A","BEST",IF(D17="A-","BEST",IF(D17="B+","BETTER",IF(D17="B","GOOD",IF(D17="B-","GOOD",IF(D17="C+","NOT BAD",IF(D17="C","BAD",IF(D17="D","PASS",IF(D17="F","FAIL",))))))))))</f>
-        <v>BEST</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>13917</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="13">
-        <v>88</v>
-      </c>
-      <c r="D18" s="14" t="str">
-        <f>IF(C18&gt;=80,"A+",IF(C18&gt;=75,"A",IF(C18&gt;=70,"A-",IF(C18&gt;=65,"B+",IF(C18&gt;=60,"B",IF(C18&gt;=55,"B-",IF(C18&gt;=50,"C+",IF(C18&gt;=45,"C",IF(C18&gt;=40,"D",IF(C18&lt;40,"F"))))))))))</f>
-        <v>A+</v>
-      </c>
-      <c r="E18" s="15">
-        <f>IF(D18="A+",4,IF(D18="A",3.75,IF(D18="A-",3.5,IF(D18="B+",3.25,IF(D18="B",3,IF(D18="B-",2.75,IF(D18="C+",2.5,IF(D18="C",2.25,IF(D18="D",2,IF(D18="F",0,))))))))))</f>
-        <v>4</v>
-      </c>
-      <c r="F18" s="18" t="str">
-        <f>IF(D18="A+","EXCELENT",IF(D18="A","BEST",IF(D18="A-","BEST",IF(D18="B+","BETTER",IF(D18="B","GOOD",IF(D18="B-","GOOD",IF(D18="C+","NOT BAD",IF(D18="C","BAD",IF(D18="D","PASS",IF(D18="F","FAIL",))))))))))</f>
-        <v>EXCELENT</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>13918</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="13">
-        <v>63</v>
-      </c>
-      <c r="D19" s="14" t="str">
-        <f>IF(C19&gt;=80,"A+",IF(C19&gt;=75,"A",IF(C19&gt;=70,"A-",IF(C19&gt;=65,"B+",IF(C19&gt;=60,"B",IF(C19&gt;=55,"B-",IF(C19&gt;=50,"C+",IF(C19&gt;=45,"C",IF(C19&gt;=40,"D",IF(C19&lt;40,"F"))))))))))</f>
-        <v>B</v>
-      </c>
-      <c r="E19" s="15">
-        <f>IF(D19="A+",4,IF(D19="A",3.75,IF(D19="A-",3.5,IF(D19="B+",3.25,IF(D19="B",3,IF(D19="B-",2.75,IF(D19="C+",2.5,IF(D19="C",2.25,IF(D19="D",2,IF(D19="F",0,))))))))))</f>
-        <v>3</v>
-      </c>
-      <c r="F19" s="18" t="str">
-        <f>IF(D19="A+","EXCELENT",IF(D19="A","BEST",IF(D19="A-","BEST",IF(D19="B+","BETTER",IF(D19="B","GOOD",IF(D19="B-","GOOD",IF(D19="C+","NOT BAD",IF(D19="C","BAD",IF(D19="D","PASS",IF(D19="F","FAIL",))))))))))</f>
-        <v>GOOD</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>13919</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="13">
-        <v>92</v>
-      </c>
-      <c r="D20" s="14" t="str">
-        <f>IF(C20&gt;=80,"A+",IF(C20&gt;=75,"A",IF(C20&gt;=70,"A-",IF(C20&gt;=65,"B+",IF(C20&gt;=60,"B",IF(C20&gt;=55,"B-",IF(C20&gt;=50,"C+",IF(C20&gt;=45,"C",IF(C20&gt;=40,"D",IF(C20&lt;40,"F"))))))))))</f>
-        <v>A+</v>
-      </c>
-      <c r="E20" s="15">
-        <f>IF(D20="A+",4,IF(D20="A",3.75,IF(D20="A-",3.5,IF(D20="B+",3.25,IF(D20="B",3,IF(D20="B-",2.75,IF(D20="C+",2.5,IF(D20="C",2.25,IF(D20="D",2,IF(D20="F",0,))))))))))</f>
-        <v>4</v>
-      </c>
-      <c r="F20" s="18" t="str">
-        <f>IF(D20="A+","EXCELENT",IF(D20="A","BEST",IF(D20="A-","BEST",IF(D20="B+","BETTER",IF(D20="B","GOOD",IF(D20="B-","GOOD",IF(D20="C+","NOT BAD",IF(D20="C","BAD",IF(D20="D","PASS",IF(D20="F","FAIL",))))))))))</f>
-        <v>EXCELENT</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>13920</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="13">
-        <v>40</v>
-      </c>
-      <c r="D21" s="14" t="str">
-        <f>IF(C21&gt;=80,"A+",IF(C21&gt;=75,"A",IF(C21&gt;=70,"A-",IF(C21&gt;=65,"B+",IF(C21&gt;=60,"B",IF(C21&gt;=55,"B-",IF(C21&gt;=50,"C+",IF(C21&gt;=45,"C",IF(C21&gt;=40,"D",IF(C21&lt;40,"F"))))))))))</f>
-        <v>D</v>
-      </c>
-      <c r="E21" s="15">
-        <f>IF(D21="A+",4,IF(D21="A",3.75,IF(D21="A-",3.5,IF(D21="B+",3.25,IF(D21="B",3,IF(D21="B-",2.75,IF(D21="C+",2.5,IF(D21="C",2.25,IF(D21="D",2,IF(D21="F",0,))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="F21" s="18" t="str">
-        <f>IF(D21="A+","EXCELENT",IF(D21="A","BEST",IF(D21="A-","BEST",IF(D21="B+","BETTER",IF(D21="B","GOOD",IF(D21="B-","GOOD",IF(D21="C+","NOT BAD",IF(D21="C","BAD",IF(D21="D","PASS",IF(D21="F","FAIL",))))))))))</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -2033,4 +6715,1561 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="23">
+        <v>7.5</v>
+      </c>
+      <c r="C4" s="23">
+        <v>27817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="23">
+        <v>7</v>
+      </c>
+      <c r="C5" s="23">
+        <v>27825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="23">
+        <v>16</v>
+      </c>
+      <c r="C6" s="23">
+        <v>55645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+      <c r="C7" s="23">
+        <v>13918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="23">
+        <v>2.75</v>
+      </c>
+      <c r="C8" s="23">
+        <v>13913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="23">
+        <v>9.75</v>
+      </c>
+      <c r="C9" s="23">
+        <v>41727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="23">
+        <v>2.25</v>
+      </c>
+      <c r="C10" s="23">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="23">
+        <v>13909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="23">
+        <v>6</v>
+      </c>
+      <c r="C12" s="23">
+        <v>41735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="23">
+        <v>0</v>
+      </c>
+      <c r="C13" s="23">
+        <v>27815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="23">
+        <v>56.75</v>
+      </c>
+      <c r="C14" s="23">
+        <v>278210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="23">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="23">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="23">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="23">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="23">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="23">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="23">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="23">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="23">
+        <v>1273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="23">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="23">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="23">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="23">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="23">
+        <v>56.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13901</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>75</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(C2&gt;=80,"A+",IF(C2&gt;=75,"A",IF(C2&gt;=70,"A-",IF(C2&gt;=65,"B+",IF(C2&gt;=60,"B",IF(C2&gt;=55,"B-",IF(C2&gt;=50,"C+",IF(C2&gt;=45,"C",IF(C2&gt;=40,"D",IF(C2&lt;40,"F"))))))))))</f>
+        <v>A</v>
+      </c>
+      <c r="E2">
+        <f>IF(D2="A+",4,IF(D2="A",3.75,IF(D2="A-",3.5,IF(D2="B+",3.25,IF(D2="B",3,IF(D2="B-",2.75,IF(D2="C+",2.5,IF(D2="C",2.25,IF(D2="D",2,IF(D2="F",0,))))))))))</f>
+        <v>3.75</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(D2="A+","EXCELENT",IF(D2="A","BEST",IF(D2="A-","BEST",IF(D2="B+","BETTER",IF(D2="B","GOOD",IF(D2="B-","GOOD",IF(D2="C+","NOT BAD",IF(D2="C","BAD",IF(D2="D","PASS",IF(D2="F","FAIL",))))))))))</f>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>13902</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>86</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(C3&gt;=80,"A+",IF(C3&gt;=75,"A",IF(C3&gt;=70,"A-",IF(C3&gt;=65,"B+",IF(C3&gt;=60,"B",IF(C3&gt;=55,"B-",IF(C3&gt;=50,"C+",IF(C3&gt;=45,"C",IF(C3&gt;=40,"D",IF(C3&lt;40,"F"))))))))))</f>
+        <v>A+</v>
+      </c>
+      <c r="E3">
+        <f>IF(D3="A+",4,IF(D3="A",3.75,IF(D3="A-",3.5,IF(D3="B+",3.25,IF(D3="B",3,IF(D3="B-",2.75,IF(D3="C+",2.5,IF(D3="C",2.25,IF(D3="D",2,IF(D3="F",0,))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(D3="A+","EXCELENT",IF(D3="A","BEST",IF(D3="A-","BEST",IF(D3="B+","BETTER",IF(D3="B","GOOD",IF(D3="B-","GOOD",IF(D3="C+","NOT BAD",IF(D3="C","BAD",IF(D3="D","PASS",IF(D3="F","FAIL",))))))))))</f>
+        <v>EXCELENT</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>13903</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(C4&gt;=80,"A+",IF(C4&gt;=75,"A",IF(C4&gt;=70,"A-",IF(C4&gt;=65,"B+",IF(C4&gt;=60,"B",IF(C4&gt;=55,"B-",IF(C4&gt;=50,"C+",IF(C4&gt;=45,"C",IF(C4&gt;=40,"D",IF(C4&lt;40,"F"))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="E4">
+        <f>IF(D4="A+",4,IF(D4="A",3.75,IF(D4="A-",3.5,IF(D4="B+",3.25,IF(D4="B",3,IF(D4="B-",2.75,IF(D4="C+",2.5,IF(D4="C",2.25,IF(D4="D",2,IF(D4="F",0,))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(D4="A+","EXCELENT",IF(D4="A","BEST",IF(D4="A-","BEST",IF(D4="B+","BETTER",IF(D4="B","GOOD",IF(D4="B-","GOOD",IF(D4="C+","NOT BAD",IF(D4="C","BAD",IF(D4="D","PASS",IF(D4="F","FAIL",))))))))))</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13904</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(C5&gt;=80,"A+",IF(C5&gt;=75,"A",IF(C5&gt;=70,"A-",IF(C5&gt;=65,"B+",IF(C5&gt;=60,"B",IF(C5&gt;=55,"B-",IF(C5&gt;=50,"C+",IF(C5&gt;=45,"C",IF(C5&gt;=40,"D",IF(C5&lt;40,"F"))))))))))</f>
+        <v>D</v>
+      </c>
+      <c r="E5">
+        <f>IF(D5="A+",4,IF(D5="A",3.75,IF(D5="A-",3.5,IF(D5="B+",3.25,IF(D5="B",3,IF(D5="B-",2.75,IF(D5="C+",2.5,IF(D5="C",2.25,IF(D5="D",2,IF(D5="F",0,))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(D5="A+","EXCELENT",IF(D5="A","BEST",IF(D5="A-","BEST",IF(D5="B+","BETTER",IF(D5="B","GOOD",IF(D5="B-","GOOD",IF(D5="C+","NOT BAD",IF(D5="C","BAD",IF(D5="D","PASS",IF(D5="F","FAIL",))))))))))</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13905</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(C6&gt;=80,"A+",IF(C6&gt;=75,"A",IF(C6&gt;=70,"A-",IF(C6&gt;=65,"B+",IF(C6&gt;=60,"B",IF(C6&gt;=55,"B-",IF(C6&gt;=50,"C+",IF(C6&gt;=45,"C",IF(C6&gt;=40,"D",IF(C6&lt;40,"F"))))))))))</f>
+        <v>B+</v>
+      </c>
+      <c r="E6">
+        <f>IF(D6="A+",4,IF(D6="A",3.75,IF(D6="A-",3.5,IF(D6="B+",3.25,IF(D6="B",3,IF(D6="B-",2.75,IF(D6="C+",2.5,IF(D6="C",2.25,IF(D6="D",2,IF(D6="F",0,))))))))))</f>
+        <v>3.25</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(D6="A+","EXCELENT",IF(D6="A","BEST",IF(D6="A-","BEST",IF(D6="B+","BETTER",IF(D6="B","GOOD",IF(D6="B-","GOOD",IF(D6="C+","NOT BAD",IF(D6="C","BAD",IF(D6="D","PASS",IF(D6="F","FAIL",))))))))))</f>
+        <v>BETTER</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13906</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(C7&gt;=80,"A+",IF(C7&gt;=75,"A",IF(C7&gt;=70,"A-",IF(C7&gt;=65,"B+",IF(C7&gt;=60,"B",IF(C7&gt;=55,"B-",IF(C7&gt;=50,"C+",IF(C7&gt;=45,"C",IF(C7&gt;=40,"D",IF(C7&lt;40,"F"))))))))))</f>
+        <v>C</v>
+      </c>
+      <c r="E7">
+        <f>IF(D7="A+",4,IF(D7="A",3.75,IF(D7="A-",3.5,IF(D7="B+",3.25,IF(D7="B",3,IF(D7="B-",2.75,IF(D7="C+",2.5,IF(D7="C",2.25,IF(D7="D",2,IF(D7="F",0,))))))))))</f>
+        <v>2.25</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(D7="A+","EXCELENT",IF(D7="A","BEST",IF(D7="A-","BEST",IF(D7="B+","BETTER",IF(D7="B","GOOD",IF(D7="B-","GOOD",IF(D7="C+","NOT BAD",IF(D7="C","BAD",IF(D7="D","PASS",IF(D7="F","FAIL",))))))))))</f>
+        <v>BAD</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13907</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>92</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(C8&gt;=80,"A+",IF(C8&gt;=75,"A",IF(C8&gt;=70,"A-",IF(C8&gt;=65,"B+",IF(C8&gt;=60,"B",IF(C8&gt;=55,"B-",IF(C8&gt;=50,"C+",IF(C8&gt;=45,"C",IF(C8&gt;=40,"D",IF(C8&lt;40,"F"))))))))))</f>
+        <v>A+</v>
+      </c>
+      <c r="E8">
+        <f>IF(D8="A+",4,IF(D8="A",3.75,IF(D8="A-",3.5,IF(D8="B+",3.25,IF(D8="B",3,IF(D8="B-",2.75,IF(D8="C+",2.5,IF(D8="C",2.25,IF(D8="D",2,IF(D8="F",0,))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(D8="A+","EXCELENT",IF(D8="A","BEST",IF(D8="A-","BEST",IF(D8="B+","BETTER",IF(D8="B","GOOD",IF(D8="B-","GOOD",IF(D8="C+","NOT BAD",IF(D8="C","BAD",IF(D8="D","PASS",IF(D8="F","FAIL",))))))))))</f>
+        <v>EXCELENT</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>13908</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>68</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(C9&gt;=80,"A+",IF(C9&gt;=75,"A",IF(C9&gt;=70,"A-",IF(C9&gt;=65,"B+",IF(C9&gt;=60,"B",IF(C9&gt;=55,"B-",IF(C9&gt;=50,"C+",IF(C9&gt;=45,"C",IF(C9&gt;=40,"D",IF(C9&lt;40,"F"))))))))))</f>
+        <v>B+</v>
+      </c>
+      <c r="E9">
+        <f>IF(D9="A+",4,IF(D9="A",3.75,IF(D9="A-",3.5,IF(D9="B+",3.25,IF(D9="B",3,IF(D9="B-",2.75,IF(D9="C+",2.5,IF(D9="C",2.25,IF(D9="D",2,IF(D9="F",0,))))))))))</f>
+        <v>3.25</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(D9="A+","EXCELENT",IF(D9="A","BEST",IF(D9="A-","BEST",IF(D9="B+","BETTER",IF(D9="B","GOOD",IF(D9="B-","GOOD",IF(D9="C+","NOT BAD",IF(D9="C","BAD",IF(D9="D","PASS",IF(D9="F","FAIL",))))))))))</f>
+        <v>BETTER</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>13909</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>53</v>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(C10&gt;=80,"A+",IF(C10&gt;=75,"A",IF(C10&gt;=70,"A-",IF(C10&gt;=65,"B+",IF(C10&gt;=60,"B",IF(C10&gt;=55,"B-",IF(C10&gt;=50,"C+",IF(C10&gt;=45,"C",IF(C10&gt;=40,"D",IF(C10&lt;40,"F"))))))))))</f>
+        <v>C+</v>
+      </c>
+      <c r="E10">
+        <f>IF(D10="A+",4,IF(D10="A",3.75,IF(D10="A-",3.5,IF(D10="B+",3.25,IF(D10="B",3,IF(D10="B-",2.75,IF(D10="C+",2.5,IF(D10="C",2.25,IF(D10="D",2,IF(D10="F",0,))))))))))</f>
+        <v>2.5</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(D10="A+","EXCELENT",IF(D10="A","BEST",IF(D10="A-","BEST",IF(D10="B+","BETTER",IF(D10="B","GOOD",IF(D10="B-","GOOD",IF(D10="C+","NOT BAD",IF(D10="C","BAD",IF(D10="D","PASS",IF(D10="F","FAIL",))))))))))</f>
+        <v>NOT BAD</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13910</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>72</v>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(C11&gt;=80,"A+",IF(C11&gt;=75,"A",IF(C11&gt;=70,"A-",IF(C11&gt;=65,"B+",IF(C11&gt;=60,"B",IF(C11&gt;=55,"B-",IF(C11&gt;=50,"C+",IF(C11&gt;=45,"C",IF(C11&gt;=40,"D",IF(C11&lt;40,"F"))))))))))</f>
+        <v>A-</v>
+      </c>
+      <c r="E11">
+        <f>IF(D11="A+",4,IF(D11="A",3.75,IF(D11="A-",3.5,IF(D11="B+",3.25,IF(D11="B",3,IF(D11="B-",2.75,IF(D11="C+",2.5,IF(D11="C",2.25,IF(D11="D",2,IF(D11="F",0,))))))))))</f>
+        <v>3.5</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(D11="A+","EXCELENT",IF(D11="A","BEST",IF(D11="A-","BEST",IF(D11="B+","BETTER",IF(D11="B","GOOD",IF(D11="B-","GOOD",IF(D11="C+","NOT BAD",IF(D11="C","BAD",IF(D11="D","PASS",IF(D11="F","FAIL",))))))))))</f>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13911</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(C12&gt;=80,"A+",IF(C12&gt;=75,"A",IF(C12&gt;=70,"A-",IF(C12&gt;=65,"B+",IF(C12&gt;=60,"B",IF(C12&gt;=55,"B-",IF(C12&gt;=50,"C+",IF(C12&gt;=45,"C",IF(C12&gt;=40,"D",IF(C12&lt;40,"F"))))))))))</f>
+        <v>D</v>
+      </c>
+      <c r="E12">
+        <f>IF(D12="A+",4,IF(D12="A",3.75,IF(D12="A-",3.5,IF(D12="B+",3.25,IF(D12="B",3,IF(D12="B-",2.75,IF(D12="C+",2.5,IF(D12="C",2.25,IF(D12="D",2,IF(D12="F",0,))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(D12="A+","EXCELENT",IF(D12="A","BEST",IF(D12="A-","BEST",IF(D12="B+","BETTER",IF(D12="B","GOOD",IF(D12="B-","GOOD",IF(D12="C+","NOT BAD",IF(D12="C","BAD",IF(D12="D","PASS",IF(D12="F","FAIL",))))))))))</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13912</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>39</v>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(C13&gt;=80,"A+",IF(C13&gt;=75,"A",IF(C13&gt;=70,"A-",IF(C13&gt;=65,"B+",IF(C13&gt;=60,"B",IF(C13&gt;=55,"B-",IF(C13&gt;=50,"C+",IF(C13&gt;=45,"C",IF(C13&gt;=40,"D",IF(C13&lt;40,"F"))))))))))</f>
+        <v>F</v>
+      </c>
+      <c r="E13">
+        <f>IF(D13="A+",4,IF(D13="A",3.75,IF(D13="A-",3.5,IF(D13="B+",3.25,IF(D13="B",3,IF(D13="B-",2.75,IF(D13="C+",2.5,IF(D13="C",2.25,IF(D13="D",2,IF(D13="F",0,))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(D13="A+","EXCELENT",IF(D13="A","BEST",IF(D13="A-","BEST",IF(D13="B+","BETTER",IF(D13="B","GOOD",IF(D13="B-","GOOD",IF(D13="C+","NOT BAD",IF(D13="C","BAD",IF(D13="D","PASS",IF(D13="F","FAIL",))))))))))</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13913</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>58</v>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(C14&gt;=80,"A+",IF(C14&gt;=75,"A",IF(C14&gt;=70,"A-",IF(C14&gt;=65,"B+",IF(C14&gt;=60,"B",IF(C14&gt;=55,"B-",IF(C14&gt;=50,"C+",IF(C14&gt;=45,"C",IF(C14&gt;=40,"D",IF(C14&lt;40,"F"))))))))))</f>
+        <v>B-</v>
+      </c>
+      <c r="E14">
+        <f>IF(D14="A+",4,IF(D14="A",3.75,IF(D14="A-",3.5,IF(D14="B+",3.25,IF(D14="B",3,IF(D14="B-",2.75,IF(D14="C+",2.5,IF(D14="C",2.25,IF(D14="D",2,IF(D14="F",0,))))))))))</f>
+        <v>2.75</v>
+      </c>
+      <c r="F14" t="str">
+        <f>IF(D14="A+","EXCELENT",IF(D14="A","BEST",IF(D14="A-","BEST",IF(D14="B+","BETTER",IF(D14="B","GOOD",IF(D14="B-","GOOD",IF(D14="C+","NOT BAD",IF(D14="C","BAD",IF(D14="D","PASS",IF(D14="F","FAIL",))))))))))</f>
+        <v>GOOD</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13914</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>69</v>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(C15&gt;=80,"A+",IF(C15&gt;=75,"A",IF(C15&gt;=70,"A-",IF(C15&gt;=65,"B+",IF(C15&gt;=60,"B",IF(C15&gt;=55,"B-",IF(C15&gt;=50,"C+",IF(C15&gt;=45,"C",IF(C15&gt;=40,"D",IF(C15&lt;40,"F"))))))))))</f>
+        <v>B+</v>
+      </c>
+      <c r="E15">
+        <f>IF(D15="A+",4,IF(D15="A",3.75,IF(D15="A-",3.5,IF(D15="B+",3.25,IF(D15="B",3,IF(D15="B-",2.75,IF(D15="C+",2.5,IF(D15="C",2.25,IF(D15="D",2,IF(D15="F",0,))))))))))</f>
+        <v>3.25</v>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(D15="A+","EXCELENT",IF(D15="A","BEST",IF(D15="A-","BEST",IF(D15="B+","BETTER",IF(D15="B","GOOD",IF(D15="B-","GOOD",IF(D15="C+","NOT BAD",IF(D15="C","BAD",IF(D15="D","PASS",IF(D15="F","FAIL",))))))))))</f>
+        <v>BETTER</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13915</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(C16&gt;=80,"A+",IF(C16&gt;=75,"A",IF(C16&gt;=70,"A-",IF(C16&gt;=65,"B+",IF(C16&gt;=60,"B",IF(C16&gt;=55,"B-",IF(C16&gt;=50,"C+",IF(C16&gt;=45,"C",IF(C16&gt;=40,"D",IF(C16&lt;40,"F"))))))))))</f>
+        <v>A-</v>
+      </c>
+      <c r="E16">
+        <f>IF(D16="A+",4,IF(D16="A",3.75,IF(D16="A-",3.5,IF(D16="B+",3.25,IF(D16="B",3,IF(D16="B-",2.75,IF(D16="C+",2.5,IF(D16="C",2.25,IF(D16="D",2,IF(D16="F",0,))))))))))</f>
+        <v>3.5</v>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(D16="A+","EXCELENT",IF(D16="A","BEST",IF(D16="A-","BEST",IF(D16="B+","BETTER",IF(D16="B","GOOD",IF(D16="B-","GOOD",IF(D16="C+","NOT BAD",IF(D16="C","BAD",IF(D16="D","PASS",IF(D16="F","FAIL",))))))))))</f>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13916</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>76</v>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(C17&gt;=80,"A+",IF(C17&gt;=75,"A",IF(C17&gt;=70,"A-",IF(C17&gt;=65,"B+",IF(C17&gt;=60,"B",IF(C17&gt;=55,"B-",IF(C17&gt;=50,"C+",IF(C17&gt;=45,"C",IF(C17&gt;=40,"D",IF(C17&lt;40,"F"))))))))))</f>
+        <v>A</v>
+      </c>
+      <c r="E17">
+        <f>IF(D17="A+",4,IF(D17="A",3.75,IF(D17="A-",3.5,IF(D17="B+",3.25,IF(D17="B",3,IF(D17="B-",2.75,IF(D17="C+",2.5,IF(D17="C",2.25,IF(D17="D",2,IF(D17="F",0,))))))))))</f>
+        <v>3.75</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(D17="A+","EXCELENT",IF(D17="A","BEST",IF(D17="A-","BEST",IF(D17="B+","BETTER",IF(D17="B","GOOD",IF(D17="B-","GOOD",IF(D17="C+","NOT BAD",IF(D17="C","BAD",IF(D17="D","PASS",IF(D17="F","FAIL",))))))))))</f>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13917</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>88</v>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(C18&gt;=80,"A+",IF(C18&gt;=75,"A",IF(C18&gt;=70,"A-",IF(C18&gt;=65,"B+",IF(C18&gt;=60,"B",IF(C18&gt;=55,"B-",IF(C18&gt;=50,"C+",IF(C18&gt;=45,"C",IF(C18&gt;=40,"D",IF(C18&lt;40,"F"))))))))))</f>
+        <v>A+</v>
+      </c>
+      <c r="E18">
+        <f>IF(D18="A+",4,IF(D18="A",3.75,IF(D18="A-",3.5,IF(D18="B+",3.25,IF(D18="B",3,IF(D18="B-",2.75,IF(D18="C+",2.5,IF(D18="C",2.25,IF(D18="D",2,IF(D18="F",0,))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(D18="A+","EXCELENT",IF(D18="A","BEST",IF(D18="A-","BEST",IF(D18="B+","BETTER",IF(D18="B","GOOD",IF(D18="B-","GOOD",IF(D18="C+","NOT BAD",IF(D18="C","BAD",IF(D18="D","PASS",IF(D18="F","FAIL",))))))))))</f>
+        <v>EXCELENT</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13918</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(C19&gt;=80,"A+",IF(C19&gt;=75,"A",IF(C19&gt;=70,"A-",IF(C19&gt;=65,"B+",IF(C19&gt;=60,"B",IF(C19&gt;=55,"B-",IF(C19&gt;=50,"C+",IF(C19&gt;=45,"C",IF(C19&gt;=40,"D",IF(C19&lt;40,"F"))))))))))</f>
+        <v>B</v>
+      </c>
+      <c r="E19">
+        <f>IF(D19="A+",4,IF(D19="A",3.75,IF(D19="A-",3.5,IF(D19="B+",3.25,IF(D19="B",3,IF(D19="B-",2.75,IF(D19="C+",2.5,IF(D19="C",2.25,IF(D19="D",2,IF(D19="F",0,))))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(D19="A+","EXCELENT",IF(D19="A","BEST",IF(D19="A-","BEST",IF(D19="B+","BETTER",IF(D19="B","GOOD",IF(D19="B-","GOOD",IF(D19="C+","NOT BAD",IF(D19="C","BAD",IF(D19="D","PASS",IF(D19="F","FAIL",))))))))))</f>
+        <v>GOOD</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13919</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>92</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(C20&gt;=80,"A+",IF(C20&gt;=75,"A",IF(C20&gt;=70,"A-",IF(C20&gt;=65,"B+",IF(C20&gt;=60,"B",IF(C20&gt;=55,"B-",IF(C20&gt;=50,"C+",IF(C20&gt;=45,"C",IF(C20&gt;=40,"D",IF(C20&lt;40,"F"))))))))))</f>
+        <v>A+</v>
+      </c>
+      <c r="E20">
+        <f>IF(D20="A+",4,IF(D20="A",3.75,IF(D20="A-",3.5,IF(D20="B+",3.25,IF(D20="B",3,IF(D20="B-",2.75,IF(D20="C+",2.5,IF(D20="C",2.25,IF(D20="D",2,IF(D20="F",0,))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(D20="A+","EXCELENT",IF(D20="A","BEST",IF(D20="A-","BEST",IF(D20="B+","BETTER",IF(D20="B","GOOD",IF(D20="B-","GOOD",IF(D20="C+","NOT BAD",IF(D20="C","BAD",IF(D20="D","PASS",IF(D20="F","FAIL",))))))))))</f>
+        <v>EXCELENT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13920</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(C21&gt;=80,"A+",IF(C21&gt;=75,"A",IF(C21&gt;=70,"A-",IF(C21&gt;=65,"B+",IF(C21&gt;=60,"B",IF(C21&gt;=55,"B-",IF(C21&gt;=50,"C+",IF(C21&gt;=45,"C",IF(C21&gt;=40,"D",IF(C21&lt;40,"F"))))))))))</f>
+        <v>D</v>
+      </c>
+      <c r="E21">
+        <f>IF(D21="A+",4,IF(D21="A",3.75,IF(D21="A-",3.5,IF(D21="B+",3.25,IF(D21="B",3,IF(D21="B-",2.75,IF(D21="C+",2.5,IF(D21="C",2.25,IF(D21="D",2,IF(D21="F",0,))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="F21" t="str">
+        <f>IF(D21="A+","EXCELENT",IF(D21="A","BEST",IF(D21="A-","BEST",IF(D21="B+","BETTER",IF(D21="B","GOOD",IF(D21="B-","GOOD",IF(D21="C+","NOT BAD",IF(D21="C","BAD",IF(D21="D","PASS",IF(D21="F","FAIL",))))))))))</f>
+        <v>PASS</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>13901</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="13">
+        <v>75</v>
+      </c>
+      <c r="D2" s="14" t="str">
+        <f t="shared" ref="D2:D21" si="0">IF(C2&gt;=80,"A+",IF(C2&gt;=75,"A",IF(C2&gt;=70,"A-",IF(C2&gt;=65,"B+",IF(C2&gt;=60,"B",IF(C2&gt;=55,"B-",IF(C2&gt;=50,"C+",IF(C2&gt;=45,"C",IF(C2&gt;=40,"D",IF(C2&lt;40,"F"))))))))))</f>
+        <v>A</v>
+      </c>
+      <c r="E2" s="15">
+        <f t="shared" ref="E2:E21" si="1">IF(D2="A+",4,IF(D2="A",3.75,IF(D2="A-",3.5,IF(D2="B+",3.25,IF(D2="B",3,IF(D2="B-",2.75,IF(D2="C+",2.5,IF(D2="C",2.25,IF(D2="D",2,IF(D2="F",0,))))))))))</f>
+        <v>3.75</v>
+      </c>
+      <c r="F2" s="18" t="str">
+        <f t="shared" ref="F2:F21" si="2">IF(D2="A+","EXCELENT",IF(D2="A","BEST",IF(D2="A-","BEST",IF(D2="B+","BETTER",IF(D2="B","GOOD",IF(D2="B-","GOOD",IF(D2="C+","NOT BAD",IF(D2="C","BAD",IF(D2="D","PASS",IF(D2="F","FAIL",))))))))))</f>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>13902</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="13">
+        <v>86</v>
+      </c>
+      <c r="D3" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>A+</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EXCELENT</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>13903</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="13">
+        <v>35</v>
+      </c>
+      <c r="D4" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E4" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>13904</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="13">
+        <v>42</v>
+      </c>
+      <c r="D5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>13905</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="13">
+        <v>65</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>B+</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="F6" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>BETTER</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>13906</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="13">
+        <v>48</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="F7" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>BAD</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>13907</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="13">
+        <v>92</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>A+</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EXCELENT</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>13908</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="13">
+        <v>68</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>B+</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="F9" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>BETTER</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>13909</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="13">
+        <v>53</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>C+</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT BAD</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>13910</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="13">
+        <v>72</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>A-</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="F11" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>13911</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="13">
+        <v>42</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>13912</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="13">
+        <v>39</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>13913</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="13">
+        <v>58</v>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>B-</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+      <c r="F14" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>GOOD</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>13914</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="13">
+        <v>69</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>B+</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="F15" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>BETTER</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>13915</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="13">
+        <v>70</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>A-</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="F16" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>13916</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="13">
+        <v>76</v>
+      </c>
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="F17" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>BEST</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>13917</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="13">
+        <v>88</v>
+      </c>
+      <c r="D18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>A+</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F18" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EXCELENT</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>13918</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="13">
+        <v>63</v>
+      </c>
+      <c r="D19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F19" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>GOOD</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>13919</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="13">
+        <v>92</v>
+      </c>
+      <c r="D20" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>A+</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F20" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>EXCELENT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>13920</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="13">
+        <v>40</v>
+      </c>
+      <c r="D21" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Result sheet.xlsx
+++ b/Result sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yasin Arif\WORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B86FCA-92F8-4D23-BD13-139D3F98DCF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualMarkSheet" sheetId="1" r:id="rId1"/>
@@ -20,15 +21,17 @@
     <sheet name="Sheet6" sheetId="11" r:id="rId6"/>
     <sheet name="short in" sheetId="12" r:id="rId7"/>
     <sheet name="H.W 8.9" sheetId="6" r:id="rId8"/>
+    <sheet name="tax" sheetId="13" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_H.W8.9A1F211" hidden="1">'H.W 8.9'!$A$1:$F$21</definedName>
+    <definedName name="_xlcn.WorksheetConnection_H.W8.9A1F21" hidden="1">'H.W 8.9'!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
-    <pivotCache cacheId="2" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,8 +49,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -56,11 +59,11 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" name="WorksheetConnection_H.W 8.9!$A$1:$F$21" type="102" refreshedVersion="6" minRefreshableVersion="5">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="WorksheetConnection_H.W 8.9!$A$1:$F$21" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_H.W8.9A1F211"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_H.W8.9A1F21"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -69,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -309,17 +312,86 @@
   </si>
   <si>
     <t>Sum of GPA</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>yasin</t>
+  </si>
+  <si>
+    <t>minhaz</t>
+  </si>
+  <si>
+    <t>suvo</t>
+  </si>
+  <si>
+    <t>tamin</t>
+  </si>
+  <si>
+    <t>tania</t>
+  </si>
+  <si>
+    <t>mow</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>yasinsohan@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tawhida </t>
+  </si>
+  <si>
+    <t>Sharif</t>
+  </si>
+  <si>
+    <t>tawhidasharif@gmai.com</t>
+  </si>
+  <si>
+    <t>Md</t>
+  </si>
+  <si>
+    <t>Motin</t>
+  </si>
+  <si>
+    <t>mdmotin@gmail.com</t>
+  </si>
+  <si>
+    <t>S M</t>
+  </si>
+  <si>
+    <t>Kaiser</t>
+  </si>
+  <si>
+    <t>smkaiser@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +430,14 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -382,11 +462,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,9 +526,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
@@ -704,7 +787,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1978,7 +2060,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2080,7 +2161,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2525,7 +2605,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2627,7 +2706,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2954,7 +3032,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4690,7 +4767,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4725,7 +4808,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4760,7 +4849,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4779,7 +4874,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Windows User" refreshedDate="43353.740135300926" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Windows User" refreshedDate="43353.740135300926" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Sum of GPA]" caption="Sum of GPA" numFmtId="0" hierarchy="9" level="32767"/>
@@ -4861,7 +4956,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Windows User" refreshedDate="43353.745549768515" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Windows User" refreshedDate="43353.745549768515" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Range].[GREAD].[GREAD]" caption="GREAD" numFmtId="0" hierarchy="3" level="1">
@@ -4968,7 +5063,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Windows User" refreshedDate="43353.747381250003" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Windows User" refreshedDate="43353.747381250003" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Range].[GREAD].[GREAD]" caption="GREAD" numFmtId="0" hierarchy="3" level="1">
@@ -5046,7 +5141,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -5409,12 +5504,15 @@
         <x15:activeTabTopLevelEntity name="[Range]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -5602,12 +5700,15 @@
         <x15:activeTabTopLevelEntity name="[Range]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -5708,22 +5809,25 @@
         <x15:activeTabTopLevelEntity name="[Range]"/>
       </x15:pivotTableUISettings>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F13" totalsRowShown="0">
+  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Marks"/>
-    <tableColumn id="4" name="Status"/>
-    <tableColumn id="5" name="Reward" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Marks"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Reward" dataDxfId="15">
       <calculatedColumnFormula>IF(C2&gt;=80*0.7-0.8,"Good","Bad")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Grade" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Grade" dataDxfId="14">
       <calculatedColumnFormula>IF(C2&gt;=80*70%-80%,"A",IF(C2&gt;=80*80%,"A+","Fail"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5732,20 +5836,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G6" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:G6" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:G6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="S.L" dataDxfId="12"/>
-    <tableColumn id="2" name="Product Name"/>
-    <tableColumn id="3" name="Quantity"/>
-    <tableColumn id="4" name="Unit Price" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="5" name="PurchasePrice" dataDxfId="10" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="S.L" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Product Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Quantity"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Unit Price" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="PurchasePrice" dataDxfId="10" dataCellStyle="Comma">
       <calculatedColumnFormula>C2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Need to Purchase" dataDxfId="9" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Need to Purchase" dataDxfId="9" dataCellStyle="Comma">
       <calculatedColumnFormula>IF(E2&lt;50000,50000-E2,"Discounted")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Discount" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Discount" dataDxfId="8">
       <calculatedColumnFormula>IF(E2&gt;=50000,E2*0.1,"No Discount")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5754,22 +5858,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F21" totalsRowShown="0">
-  <autoFilter ref="A1:F21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:F21" totalsRowShown="0">
+  <autoFilter ref="A1:F21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A2:F21">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="NAME"/>
-    <tableColumn id="3" name="MARKS"/>
-    <tableColumn id="4" name="GREAD">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="NAME"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MARKS"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="GREAD">
       <calculatedColumnFormula>IF(C2&gt;=80,"A+",IF(C2&gt;=75,"A",IF(C2&gt;=70,"A-",IF(C2&gt;=65,"B+",IF(C2&gt;=60,"B",IF(C2&gt;=55,"B-",IF(C2&gt;=50,"C+",IF(C2&gt;=45,"C",IF(C2&gt;=40,"D",IF(C2&lt;40,"F"))))))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="GPA">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GPA">
       <calculatedColumnFormula>IF(D2="A+",4,IF(D2="A",3.75,IF(D2="A-",3.5,IF(D2="B+",3.25,IF(D2="B",3,IF(D2="B-",2.75,IF(D2="C+",2.5,IF(D2="C",2.25,IF(D2="D",2,IF(D2="F",0,))))))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="STATUS">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="STATUS">
       <calculatedColumnFormula>IF(D2="A+","EXCELENT",IF(D2="A","BEST",IF(D2="A-","BEST",IF(D2="B+","BETTER",IF(D2="B","GOOD",IF(D2="B-","GOOD",IF(D2="C+","NOT BAD",IF(D2="C","BAD",IF(D2="D","PASS",IF(D2="F","FAIL",))))))))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5778,15 +5882,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F22" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="NAME" dataDxfId="4"/>
-    <tableColumn id="3" name="MARKS" dataDxfId="3"/>
-    <tableColumn id="4" name="GREAD" dataDxfId="2"/>
-    <tableColumn id="5" name="GPA" dataDxfId="1"/>
-    <tableColumn id="6" name="STATUS" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="NAME" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="MARKS" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="GREAD" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="GPA" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="STATUS" dataDxfId="0">
       <calculatedColumnFormula>IF(D2="A+","EXCELENT",IF(D2="A","BEST",IF(D2="A-","BEST",IF(D2="B+","BETTER",IF(D2="B","GOOD",IF(D2="B-","GOOD",IF(D2="C+","NOT BAD",IF(D2="C","BAD",IF(D2="D","PASS",IF(D2="F","FAIL",))))))))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6056,7 +6160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -6244,8 +6348,84 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D14259-224A-40DD-A606-E960020F3DCC}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{76DBD3F3-6489-4BAD-9843-D172B1987A6C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{819B4509-E2DF-4366-8B2D-48FB8B8590E2}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{D0AFD0E6-DFB2-416A-95C0-67AA308C9352}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{0F7DB5E1-1828-4B0F-8F79-8603A66CBD44}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6535,7 +6715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -6718,7 +6898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:C14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6872,7 +7052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:B34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -7149,7 +7329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -7265,10 +7445,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7307,15 +7489,15 @@
         <v>75</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(C2&gt;=80,"A+",IF(C2&gt;=75,"A",IF(C2&gt;=70,"A-",IF(C2&gt;=65,"B+",IF(C2&gt;=60,"B",IF(C2&gt;=55,"B-",IF(C2&gt;=50,"C+",IF(C2&gt;=45,"C",IF(C2&gt;=40,"D",IF(C2&lt;40,"F"))))))))))</f>
+        <f t="shared" ref="D2:D21" si="0">IF(C2&gt;=80,"A+",IF(C2&gt;=75,"A",IF(C2&gt;=70,"A-",IF(C2&gt;=65,"B+",IF(C2&gt;=60,"B",IF(C2&gt;=55,"B-",IF(C2&gt;=50,"C+",IF(C2&gt;=45,"C",IF(C2&gt;=40,"D",IF(C2&lt;40,"F"))))))))))</f>
         <v>A</v>
       </c>
       <c r="E2">
-        <f>IF(D2="A+",4,IF(D2="A",3.75,IF(D2="A-",3.5,IF(D2="B+",3.25,IF(D2="B",3,IF(D2="B-",2.75,IF(D2="C+",2.5,IF(D2="C",2.25,IF(D2="D",2,IF(D2="F",0,))))))))))</f>
+        <f t="shared" ref="E2:E21" si="1">IF(D2="A+",4,IF(D2="A",3.75,IF(D2="A-",3.5,IF(D2="B+",3.25,IF(D2="B",3,IF(D2="B-",2.75,IF(D2="C+",2.5,IF(D2="C",2.25,IF(D2="D",2,IF(D2="F",0,))))))))))</f>
         <v>3.75</v>
       </c>
       <c r="F2" t="str">
-        <f>IF(D2="A+","EXCELENT",IF(D2="A","BEST",IF(D2="A-","BEST",IF(D2="B+","BETTER",IF(D2="B","GOOD",IF(D2="B-","GOOD",IF(D2="C+","NOT BAD",IF(D2="C","BAD",IF(D2="D","PASS",IF(D2="F","FAIL",))))))))))</f>
+        <f t="shared" ref="F2:F21" si="2">IF(D2="A+","EXCELENT",IF(D2="A","BEST",IF(D2="A-","BEST",IF(D2="B+","BETTER",IF(D2="B","GOOD",IF(D2="B-","GOOD",IF(D2="C+","NOT BAD",IF(D2="C","BAD",IF(D2="D","PASS",IF(D2="F","FAIL",))))))))))</f>
         <v>BEST</v>
       </c>
     </row>
@@ -7330,15 +7512,15 @@
         <v>86</v>
       </c>
       <c r="D3" t="str">
-        <f>IF(C3&gt;=80,"A+",IF(C3&gt;=75,"A",IF(C3&gt;=70,"A-",IF(C3&gt;=65,"B+",IF(C3&gt;=60,"B",IF(C3&gt;=55,"B-",IF(C3&gt;=50,"C+",IF(C3&gt;=45,"C",IF(C3&gt;=40,"D",IF(C3&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
       </c>
       <c r="E3">
-        <f>IF(D3="A+",4,IF(D3="A",3.75,IF(D3="A-",3.5,IF(D3="B+",3.25,IF(D3="B",3,IF(D3="B-",2.75,IF(D3="C+",2.5,IF(D3="C",2.25,IF(D3="D",2,IF(D3="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F3" t="str">
-        <f>IF(D3="A+","EXCELENT",IF(D3="A","BEST",IF(D3="A-","BEST",IF(D3="B+","BETTER",IF(D3="B","GOOD",IF(D3="B-","GOOD",IF(D3="C+","NOT BAD",IF(D3="C","BAD",IF(D3="D","PASS",IF(D3="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>EXCELENT</v>
       </c>
     </row>
@@ -7353,15 +7535,15 @@
         <v>35</v>
       </c>
       <c r="D4" t="str">
-        <f>IF(C4&gt;=80,"A+",IF(C4&gt;=75,"A",IF(C4&gt;=70,"A-",IF(C4&gt;=65,"B+",IF(C4&gt;=60,"B",IF(C4&gt;=55,"B-",IF(C4&gt;=50,"C+",IF(C4&gt;=45,"C",IF(C4&gt;=40,"D",IF(C4&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>F</v>
       </c>
       <c r="E4">
-        <f>IF(D4="A+",4,IF(D4="A",3.75,IF(D4="A-",3.5,IF(D4="B+",3.25,IF(D4="B",3,IF(D4="B-",2.75,IF(D4="C+",2.5,IF(D4="C",2.25,IF(D4="D",2,IF(D4="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <f>IF(D4="A+","EXCELENT",IF(D4="A","BEST",IF(D4="A-","BEST",IF(D4="B+","BETTER",IF(D4="B","GOOD",IF(D4="B-","GOOD",IF(D4="C+","NOT BAD",IF(D4="C","BAD",IF(D4="D","PASS",IF(D4="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>FAIL</v>
       </c>
     </row>
@@ -7376,15 +7558,15 @@
         <v>42</v>
       </c>
       <c r="D5" t="str">
-        <f>IF(C5&gt;=80,"A+",IF(C5&gt;=75,"A",IF(C5&gt;=70,"A-",IF(C5&gt;=65,"B+",IF(C5&gt;=60,"B",IF(C5&gt;=55,"B-",IF(C5&gt;=50,"C+",IF(C5&gt;=45,"C",IF(C5&gt;=40,"D",IF(C5&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
       <c r="E5">
-        <f>IF(D5="A+",4,IF(D5="A",3.75,IF(D5="A-",3.5,IF(D5="B+",3.25,IF(D5="B",3,IF(D5="B-",2.75,IF(D5="C+",2.5,IF(D5="C",2.25,IF(D5="D",2,IF(D5="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F5" t="str">
-        <f>IF(D5="A+","EXCELENT",IF(D5="A","BEST",IF(D5="A-","BEST",IF(D5="B+","BETTER",IF(D5="B","GOOD",IF(D5="B-","GOOD",IF(D5="C+","NOT BAD",IF(D5="C","BAD",IF(D5="D","PASS",IF(D5="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
     </row>
@@ -7399,15 +7581,15 @@
         <v>65</v>
       </c>
       <c r="D6" t="str">
-        <f>IF(C6&gt;=80,"A+",IF(C6&gt;=75,"A",IF(C6&gt;=70,"A-",IF(C6&gt;=65,"B+",IF(C6&gt;=60,"B",IF(C6&gt;=55,"B-",IF(C6&gt;=50,"C+",IF(C6&gt;=45,"C",IF(C6&gt;=40,"D",IF(C6&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>B+</v>
       </c>
       <c r="E6">
-        <f>IF(D6="A+",4,IF(D6="A",3.75,IF(D6="A-",3.5,IF(D6="B+",3.25,IF(D6="B",3,IF(D6="B-",2.75,IF(D6="C+",2.5,IF(D6="C",2.25,IF(D6="D",2,IF(D6="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
       <c r="F6" t="str">
-        <f>IF(D6="A+","EXCELENT",IF(D6="A","BEST",IF(D6="A-","BEST",IF(D6="B+","BETTER",IF(D6="B","GOOD",IF(D6="B-","GOOD",IF(D6="C+","NOT BAD",IF(D6="C","BAD",IF(D6="D","PASS",IF(D6="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>BETTER</v>
       </c>
     </row>
@@ -7422,15 +7604,15 @@
         <v>48</v>
       </c>
       <c r="D7" t="str">
-        <f>IF(C7&gt;=80,"A+",IF(C7&gt;=75,"A",IF(C7&gt;=70,"A-",IF(C7&gt;=65,"B+",IF(C7&gt;=60,"B",IF(C7&gt;=55,"B-",IF(C7&gt;=50,"C+",IF(C7&gt;=45,"C",IF(C7&gt;=40,"D",IF(C7&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="E7">
-        <f>IF(D7="A+",4,IF(D7="A",3.75,IF(D7="A-",3.5,IF(D7="B+",3.25,IF(D7="B",3,IF(D7="B-",2.75,IF(D7="C+",2.5,IF(D7="C",2.25,IF(D7="D",2,IF(D7="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
       <c r="F7" t="str">
-        <f>IF(D7="A+","EXCELENT",IF(D7="A","BEST",IF(D7="A-","BEST",IF(D7="B+","BETTER",IF(D7="B","GOOD",IF(D7="B-","GOOD",IF(D7="C+","NOT BAD",IF(D7="C","BAD",IF(D7="D","PASS",IF(D7="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>BAD</v>
       </c>
     </row>
@@ -7445,15 +7627,15 @@
         <v>92</v>
       </c>
       <c r="D8" t="str">
-        <f>IF(C8&gt;=80,"A+",IF(C8&gt;=75,"A",IF(C8&gt;=70,"A-",IF(C8&gt;=65,"B+",IF(C8&gt;=60,"B",IF(C8&gt;=55,"B-",IF(C8&gt;=50,"C+",IF(C8&gt;=45,"C",IF(C8&gt;=40,"D",IF(C8&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
       </c>
       <c r="E8">
-        <f>IF(D8="A+",4,IF(D8="A",3.75,IF(D8="A-",3.5,IF(D8="B+",3.25,IF(D8="B",3,IF(D8="B-",2.75,IF(D8="C+",2.5,IF(D8="C",2.25,IF(D8="D",2,IF(D8="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F8" t="str">
-        <f>IF(D8="A+","EXCELENT",IF(D8="A","BEST",IF(D8="A-","BEST",IF(D8="B+","BETTER",IF(D8="B","GOOD",IF(D8="B-","GOOD",IF(D8="C+","NOT BAD",IF(D8="C","BAD",IF(D8="D","PASS",IF(D8="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>EXCELENT</v>
       </c>
     </row>
@@ -7468,15 +7650,15 @@
         <v>68</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(C9&gt;=80,"A+",IF(C9&gt;=75,"A",IF(C9&gt;=70,"A-",IF(C9&gt;=65,"B+",IF(C9&gt;=60,"B",IF(C9&gt;=55,"B-",IF(C9&gt;=50,"C+",IF(C9&gt;=45,"C",IF(C9&gt;=40,"D",IF(C9&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>B+</v>
       </c>
       <c r="E9">
-        <f>IF(D9="A+",4,IF(D9="A",3.75,IF(D9="A-",3.5,IF(D9="B+",3.25,IF(D9="B",3,IF(D9="B-",2.75,IF(D9="C+",2.5,IF(D9="C",2.25,IF(D9="D",2,IF(D9="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
       <c r="F9" t="str">
-        <f>IF(D9="A+","EXCELENT",IF(D9="A","BEST",IF(D9="A-","BEST",IF(D9="B+","BETTER",IF(D9="B","GOOD",IF(D9="B-","GOOD",IF(D9="C+","NOT BAD",IF(D9="C","BAD",IF(D9="D","PASS",IF(D9="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>BETTER</v>
       </c>
     </row>
@@ -7491,15 +7673,15 @@
         <v>53</v>
       </c>
       <c r="D10" t="str">
-        <f>IF(C10&gt;=80,"A+",IF(C10&gt;=75,"A",IF(C10&gt;=70,"A-",IF(C10&gt;=65,"B+",IF(C10&gt;=60,"B",IF(C10&gt;=55,"B-",IF(C10&gt;=50,"C+",IF(C10&gt;=45,"C",IF(C10&gt;=40,"D",IF(C10&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>C+</v>
       </c>
       <c r="E10">
-        <f>IF(D10="A+",4,IF(D10="A",3.75,IF(D10="A-",3.5,IF(D10="B+",3.25,IF(D10="B",3,IF(D10="B-",2.75,IF(D10="C+",2.5,IF(D10="C",2.25,IF(D10="D",2,IF(D10="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="F10" t="str">
-        <f>IF(D10="A+","EXCELENT",IF(D10="A","BEST",IF(D10="A-","BEST",IF(D10="B+","BETTER",IF(D10="B","GOOD",IF(D10="B-","GOOD",IF(D10="C+","NOT BAD",IF(D10="C","BAD",IF(D10="D","PASS",IF(D10="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>NOT BAD</v>
       </c>
     </row>
@@ -7514,15 +7696,15 @@
         <v>72</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(C11&gt;=80,"A+",IF(C11&gt;=75,"A",IF(C11&gt;=70,"A-",IF(C11&gt;=65,"B+",IF(C11&gt;=60,"B",IF(C11&gt;=55,"B-",IF(C11&gt;=50,"C+",IF(C11&gt;=45,"C",IF(C11&gt;=40,"D",IF(C11&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>A-</v>
       </c>
       <c r="E11">
-        <f>IF(D11="A+",4,IF(D11="A",3.75,IF(D11="A-",3.5,IF(D11="B+",3.25,IF(D11="B",3,IF(D11="B-",2.75,IF(D11="C+",2.5,IF(D11="C",2.25,IF(D11="D",2,IF(D11="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="F11" t="str">
-        <f>IF(D11="A+","EXCELENT",IF(D11="A","BEST",IF(D11="A-","BEST",IF(D11="B+","BETTER",IF(D11="B","GOOD",IF(D11="B-","GOOD",IF(D11="C+","NOT BAD",IF(D11="C","BAD",IF(D11="D","PASS",IF(D11="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>BEST</v>
       </c>
     </row>
@@ -7537,15 +7719,15 @@
         <v>42</v>
       </c>
       <c r="D12" t="str">
-        <f>IF(C12&gt;=80,"A+",IF(C12&gt;=75,"A",IF(C12&gt;=70,"A-",IF(C12&gt;=65,"B+",IF(C12&gt;=60,"B",IF(C12&gt;=55,"B-",IF(C12&gt;=50,"C+",IF(C12&gt;=45,"C",IF(C12&gt;=40,"D",IF(C12&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
       <c r="E12">
-        <f>IF(D12="A+",4,IF(D12="A",3.75,IF(D12="A-",3.5,IF(D12="B+",3.25,IF(D12="B",3,IF(D12="B-",2.75,IF(D12="C+",2.5,IF(D12="C",2.25,IF(D12="D",2,IF(D12="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F12" t="str">
-        <f>IF(D12="A+","EXCELENT",IF(D12="A","BEST",IF(D12="A-","BEST",IF(D12="B+","BETTER",IF(D12="B","GOOD",IF(D12="B-","GOOD",IF(D12="C+","NOT BAD",IF(D12="C","BAD",IF(D12="D","PASS",IF(D12="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
     </row>
@@ -7560,15 +7742,15 @@
         <v>39</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(C13&gt;=80,"A+",IF(C13&gt;=75,"A",IF(C13&gt;=70,"A-",IF(C13&gt;=65,"B+",IF(C13&gt;=60,"B",IF(C13&gt;=55,"B-",IF(C13&gt;=50,"C+",IF(C13&gt;=45,"C",IF(C13&gt;=40,"D",IF(C13&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>F</v>
       </c>
       <c r="E13">
-        <f>IF(D13="A+",4,IF(D13="A",3.75,IF(D13="A-",3.5,IF(D13="B+",3.25,IF(D13="B",3,IF(D13="B-",2.75,IF(D13="C+",2.5,IF(D13="C",2.25,IF(D13="D",2,IF(D13="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13" t="str">
-        <f>IF(D13="A+","EXCELENT",IF(D13="A","BEST",IF(D13="A-","BEST",IF(D13="B+","BETTER",IF(D13="B","GOOD",IF(D13="B-","GOOD",IF(D13="C+","NOT BAD",IF(D13="C","BAD",IF(D13="D","PASS",IF(D13="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>FAIL</v>
       </c>
     </row>
@@ -7583,15 +7765,15 @@
         <v>58</v>
       </c>
       <c r="D14" t="str">
-        <f>IF(C14&gt;=80,"A+",IF(C14&gt;=75,"A",IF(C14&gt;=70,"A-",IF(C14&gt;=65,"B+",IF(C14&gt;=60,"B",IF(C14&gt;=55,"B-",IF(C14&gt;=50,"C+",IF(C14&gt;=45,"C",IF(C14&gt;=40,"D",IF(C14&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>B-</v>
       </c>
       <c r="E14">
-        <f>IF(D14="A+",4,IF(D14="A",3.75,IF(D14="A-",3.5,IF(D14="B+",3.25,IF(D14="B",3,IF(D14="B-",2.75,IF(D14="C+",2.5,IF(D14="C",2.25,IF(D14="D",2,IF(D14="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
       <c r="F14" t="str">
-        <f>IF(D14="A+","EXCELENT",IF(D14="A","BEST",IF(D14="A-","BEST",IF(D14="B+","BETTER",IF(D14="B","GOOD",IF(D14="B-","GOOD",IF(D14="C+","NOT BAD",IF(D14="C","BAD",IF(D14="D","PASS",IF(D14="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -7606,15 +7788,15 @@
         <v>69</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(C15&gt;=80,"A+",IF(C15&gt;=75,"A",IF(C15&gt;=70,"A-",IF(C15&gt;=65,"B+",IF(C15&gt;=60,"B",IF(C15&gt;=55,"B-",IF(C15&gt;=50,"C+",IF(C15&gt;=45,"C",IF(C15&gt;=40,"D",IF(C15&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>B+</v>
       </c>
       <c r="E15">
-        <f>IF(D15="A+",4,IF(D15="A",3.75,IF(D15="A-",3.5,IF(D15="B+",3.25,IF(D15="B",3,IF(D15="B-",2.75,IF(D15="C+",2.5,IF(D15="C",2.25,IF(D15="D",2,IF(D15="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
       <c r="F15" t="str">
-        <f>IF(D15="A+","EXCELENT",IF(D15="A","BEST",IF(D15="A-","BEST",IF(D15="B+","BETTER",IF(D15="B","GOOD",IF(D15="B-","GOOD",IF(D15="C+","NOT BAD",IF(D15="C","BAD",IF(D15="D","PASS",IF(D15="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>BETTER</v>
       </c>
     </row>
@@ -7629,15 +7811,15 @@
         <v>70</v>
       </c>
       <c r="D16" t="str">
-        <f>IF(C16&gt;=80,"A+",IF(C16&gt;=75,"A",IF(C16&gt;=70,"A-",IF(C16&gt;=65,"B+",IF(C16&gt;=60,"B",IF(C16&gt;=55,"B-",IF(C16&gt;=50,"C+",IF(C16&gt;=45,"C",IF(C16&gt;=40,"D",IF(C16&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>A-</v>
       </c>
       <c r="E16">
-        <f>IF(D16="A+",4,IF(D16="A",3.75,IF(D16="A-",3.5,IF(D16="B+",3.25,IF(D16="B",3,IF(D16="B-",2.75,IF(D16="C+",2.5,IF(D16="C",2.25,IF(D16="D",2,IF(D16="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="F16" t="str">
-        <f>IF(D16="A+","EXCELENT",IF(D16="A","BEST",IF(D16="A-","BEST",IF(D16="B+","BETTER",IF(D16="B","GOOD",IF(D16="B-","GOOD",IF(D16="C+","NOT BAD",IF(D16="C","BAD",IF(D16="D","PASS",IF(D16="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>BEST</v>
       </c>
     </row>
@@ -7652,15 +7834,15 @@
         <v>76</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(C17&gt;=80,"A+",IF(C17&gt;=75,"A",IF(C17&gt;=70,"A-",IF(C17&gt;=65,"B+",IF(C17&gt;=60,"B",IF(C17&gt;=55,"B-",IF(C17&gt;=50,"C+",IF(C17&gt;=45,"C",IF(C17&gt;=40,"D",IF(C17&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="E17">
-        <f>IF(D17="A+",4,IF(D17="A",3.75,IF(D17="A-",3.5,IF(D17="B+",3.25,IF(D17="B",3,IF(D17="B-",2.75,IF(D17="C+",2.5,IF(D17="C",2.25,IF(D17="D",2,IF(D17="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="F17" t="str">
-        <f>IF(D17="A+","EXCELENT",IF(D17="A","BEST",IF(D17="A-","BEST",IF(D17="B+","BETTER",IF(D17="B","GOOD",IF(D17="B-","GOOD",IF(D17="C+","NOT BAD",IF(D17="C","BAD",IF(D17="D","PASS",IF(D17="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>BEST</v>
       </c>
     </row>
@@ -7675,15 +7857,15 @@
         <v>88</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(C18&gt;=80,"A+",IF(C18&gt;=75,"A",IF(C18&gt;=70,"A-",IF(C18&gt;=65,"B+",IF(C18&gt;=60,"B",IF(C18&gt;=55,"B-",IF(C18&gt;=50,"C+",IF(C18&gt;=45,"C",IF(C18&gt;=40,"D",IF(C18&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
       </c>
       <c r="E18">
-        <f>IF(D18="A+",4,IF(D18="A",3.75,IF(D18="A-",3.5,IF(D18="B+",3.25,IF(D18="B",3,IF(D18="B-",2.75,IF(D18="C+",2.5,IF(D18="C",2.25,IF(D18="D",2,IF(D18="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F18" t="str">
-        <f>IF(D18="A+","EXCELENT",IF(D18="A","BEST",IF(D18="A-","BEST",IF(D18="B+","BETTER",IF(D18="B","GOOD",IF(D18="B-","GOOD",IF(D18="C+","NOT BAD",IF(D18="C","BAD",IF(D18="D","PASS",IF(D18="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>EXCELENT</v>
       </c>
     </row>
@@ -7698,15 +7880,15 @@
         <v>63</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(C19&gt;=80,"A+",IF(C19&gt;=75,"A",IF(C19&gt;=70,"A-",IF(C19&gt;=65,"B+",IF(C19&gt;=60,"B",IF(C19&gt;=55,"B-",IF(C19&gt;=50,"C+",IF(C19&gt;=45,"C",IF(C19&gt;=40,"D",IF(C19&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="E19">
-        <f>IF(D19="A+",4,IF(D19="A",3.75,IF(D19="A-",3.5,IF(D19="B+",3.25,IF(D19="B",3,IF(D19="B-",2.75,IF(D19="C+",2.5,IF(D19="C",2.25,IF(D19="D",2,IF(D19="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F19" t="str">
-        <f>IF(D19="A+","EXCELENT",IF(D19="A","BEST",IF(D19="A-","BEST",IF(D19="B+","BETTER",IF(D19="B","GOOD",IF(D19="B-","GOOD",IF(D19="C+","NOT BAD",IF(D19="C","BAD",IF(D19="D","PASS",IF(D19="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>GOOD</v>
       </c>
     </row>
@@ -7721,15 +7903,15 @@
         <v>92</v>
       </c>
       <c r="D20" t="str">
-        <f>IF(C20&gt;=80,"A+",IF(C20&gt;=75,"A",IF(C20&gt;=70,"A-",IF(C20&gt;=65,"B+",IF(C20&gt;=60,"B",IF(C20&gt;=55,"B-",IF(C20&gt;=50,"C+",IF(C20&gt;=45,"C",IF(C20&gt;=40,"D",IF(C20&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>A+</v>
       </c>
       <c r="E20">
-        <f>IF(D20="A+",4,IF(D20="A",3.75,IF(D20="A-",3.5,IF(D20="B+",3.25,IF(D20="B",3,IF(D20="B-",2.75,IF(D20="C+",2.5,IF(D20="C",2.25,IF(D20="D",2,IF(D20="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F20" t="str">
-        <f>IF(D20="A+","EXCELENT",IF(D20="A","BEST",IF(D20="A-","BEST",IF(D20="B+","BETTER",IF(D20="B","GOOD",IF(D20="B-","GOOD",IF(D20="C+","NOT BAD",IF(D20="C","BAD",IF(D20="D","PASS",IF(D20="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>EXCELENT</v>
       </c>
     </row>
@@ -7744,15 +7926,15 @@
         <v>40</v>
       </c>
       <c r="D21" t="str">
-        <f>IF(C21&gt;=80,"A+",IF(C21&gt;=75,"A",IF(C21&gt;=70,"A-",IF(C21&gt;=65,"B+",IF(C21&gt;=60,"B",IF(C21&gt;=55,"B-",IF(C21&gt;=50,"C+",IF(C21&gt;=45,"C",IF(C21&gt;=40,"D",IF(C21&lt;40,"F"))))))))))</f>
+        <f t="shared" si="0"/>
         <v>D</v>
       </c>
       <c r="E21">
-        <f>IF(D21="A+",4,IF(D21="A",3.75,IF(D21="A-",3.5,IF(D21="B+",3.25,IF(D21="B",3,IF(D21="B-",2.75,IF(D21="C+",2.5,IF(D21="C",2.25,IF(D21="D",2,IF(D21="F",0,))))))))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F21" t="str">
-        <f>IF(D21="A+","EXCELENT",IF(D21="A","BEST",IF(D21="A-","BEST",IF(D21="B+","BETTER",IF(D21="B","GOOD",IF(D21="B-","GOOD",IF(D21="C+","NOT BAD",IF(D21="C","BAD",IF(D21="D","PASS",IF(D21="F","FAIL",))))))))))</f>
+        <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
     </row>
@@ -7765,11 +7947,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7806,19 +7988,19 @@
         <v>49</v>
       </c>
       <c r="C2" s="13">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D2" s="14" t="str">
-        <f t="shared" ref="D2:D21" si="0">IF(C2&gt;=80,"A+",IF(C2&gt;=75,"A",IF(C2&gt;=70,"A-",IF(C2&gt;=65,"B+",IF(C2&gt;=60,"B",IF(C2&gt;=55,"B-",IF(C2&gt;=50,"C+",IF(C2&gt;=45,"C",IF(C2&gt;=40,"D",IF(C2&lt;40,"F"))))))))))</f>
-        <v>A</v>
-      </c>
-      <c r="E2" s="15">
-        <f t="shared" ref="E2:E21" si="1">IF(D2="A+",4,IF(D2="A",3.75,IF(D2="A-",3.5,IF(D2="B+",3.25,IF(D2="B",3,IF(D2="B-",2.75,IF(D2="C+",2.5,IF(D2="C",2.25,IF(D2="D",2,IF(D2="F",0,))))))))))</f>
-        <v>3.75</v>
+        <f>IF(AND(C2&gt;=0,C2&lt;=100),IF(AND(C2&gt;=80,C2&lt;=100),"4.00",IF(AND(C2&gt;=75,C2&lt;=79),"3.75",IF(AND(C2&gt;=70,C2&lt;=74),"3.50",IF(AND(C2&gt;=65,C2&lt;=69),"3.25",IF(AND(C2&gt;=60,C2&lt;=64),"3.00",IF(AND(C2&gt;=55,C2&lt;=59),"2.75",IF(AND(C2&gt;=50,C2&lt;=54),"2.50",IF(AND(C2&gt;=45,C2&lt;=49),"2.25","0")))))))),"Invalid input!")</f>
+        <v>4.00</v>
+      </c>
+      <c r="E2" s="15" t="str">
+        <f>IF(AND(C2&gt;=0,C2&lt;=100),IF(AND(C2&gt;=80,C2&lt;=100),"A+",IF(AND(C2&gt;=75,C2&lt;=79.9),"A",IF(AND(C2&gt;=70,C2&lt;=74.9),"A-",IF(AND(C2&gt;=65,C2&lt;=69.9),"B+",IF(AND(C2&gt;=60,C2&lt;=64.9),"B",IF(AND(C2&gt;=55,C2&lt;=59.9),"B-",IF(AND(C2&gt;=50,C2&lt;=54.9),"C+",IF(AND(C2&gt;=45,C2&lt;=49.9),"C","F")))))))),"Invalid!")</f>
+        <v>A+</v>
       </c>
       <c r="F2" s="18" t="str">
-        <f t="shared" ref="F2:F21" si="2">IF(D2="A+","EXCELENT",IF(D2="A","BEST",IF(D2="A-","BEST",IF(D2="B+","BETTER",IF(D2="B","GOOD",IF(D2="B-","GOOD",IF(D2="C+","NOT BAD",IF(D2="C","BAD",IF(D2="D","PASS",IF(D2="F","FAIL",))))))))))</f>
-        <v>BEST</v>
+        <f>IF(AND(C2&gt;=0,C2&lt;=100),IF(AND(C2&gt;=80,C2&lt;=100),"Outstanding",IF(AND(C2&gt;=75,C2&lt;=79.9),"Excellent",IF(AND(C2&gt;=70,C2&lt;=74.9),"Very Good",IF(AND(C2&gt;=65,C2&lt;=69.9),"Good",IF(AND(C2&gt;=60,C2&lt;=64.9),"Satisfactory",IF(AND(C2&gt;=55,C2&lt;=59.9),"Above Average",IF(AND(C2&gt;=50,C2&lt;=54.9),"Average",IF(AND(C2&gt;=45,C2&lt;=49.9),"Below Average","Poor Marks!")))))))),"Invalid!")</f>
+        <v>Outstanding</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7829,19 +8011,19 @@
         <v>48</v>
       </c>
       <c r="C3" s="13">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D21" si="0">IF(AND(C3&gt;=0,C3&lt;=100),IF(AND(C3&gt;=80,C3&lt;=100),"4.00",IF(AND(C3&gt;=75,C3&lt;=79),"3.75",IF(AND(C3&gt;=70,C3&lt;=74),"3.50",IF(AND(C3&gt;=65,C3&lt;=69),"3.25",IF(AND(C3&gt;=60,C3&lt;=64),"3.00",IF(AND(C3&gt;=55,C3&lt;=59),"2.75",IF(AND(C3&gt;=50,C3&lt;=54),"2.50",IF(AND(C3&gt;=45,C3&lt;=49),"2.25","0")))))))),"Invalid input!")</f>
+        <v>4.00</v>
+      </c>
+      <c r="E3" s="15" t="str">
+        <f t="shared" ref="E3:E21" si="1">IF(AND(C3&gt;=0,C3&lt;=100),IF(AND(C3&gt;=80,C3&lt;=100),"A+",IF(AND(C3&gt;=75,C3&lt;=79.9),"A",IF(AND(C3&gt;=70,C3&lt;=74.9),"A-",IF(AND(C3&gt;=65,C3&lt;=69.9),"B+",IF(AND(C3&gt;=60,C3&lt;=64.9),"B",IF(AND(C3&gt;=55,C3&lt;=59.9),"B-",IF(AND(C3&gt;=50,C3&lt;=54.9),"C+",IF(AND(C3&gt;=45,C3&lt;=49.9),"C","F")))))))),"Invalid!")</f>
         <v>A+</v>
       </c>
-      <c r="E3" s="15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="F3" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>EXCELENT</v>
+        <f t="shared" ref="F3:F21" si="2">IF(AND(C3&gt;=0,C3&lt;=100),IF(AND(C3&gt;=80,C3&lt;=100),"Outstanding",IF(AND(C3&gt;=75,C3&lt;=79.9),"Excellent",IF(AND(C3&gt;=70,C3&lt;=74.9),"Very Good",IF(AND(C3&gt;=65,C3&lt;=69.9),"Good",IF(AND(C3&gt;=60,C3&lt;=64.9),"Satisfactory",IF(AND(C3&gt;=55,C3&lt;=59.9),"Above Average",IF(AND(C3&gt;=50,C3&lt;=54.9),"Average",IF(AND(C3&gt;=45,C3&lt;=49.9),"Below Average","Poor Marks!")))))))),"Invalid!")</f>
+        <v>Outstanding</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7856,15 +8038,15 @@
       </c>
       <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>F</v>
-      </c>
-      <c r="E4" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="F4" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>FAIL</v>
+        <v>Poor Marks!</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7879,15 +8061,15 @@
       </c>
       <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>D</v>
-      </c>
-      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>F</v>
       </c>
       <c r="F5" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>PASS</v>
+        <v>Poor Marks!</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7902,15 +8084,15 @@
       </c>
       <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="E6" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>B+</v>
-      </c>
-      <c r="E6" s="15">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
       </c>
       <c r="F6" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>BETTER</v>
+        <v>Good</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7925,15 +8107,15 @@
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="E7" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>C</v>
-      </c>
-      <c r="E7" s="15">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
       </c>
       <c r="F7" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>BAD</v>
+        <v>Below Average</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7948,15 +8130,15 @@
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>4.00</v>
+      </c>
+      <c r="E8" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>A+</v>
-      </c>
-      <c r="E8" s="15">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
       <c r="F8" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>EXCELENT</v>
+        <v>Outstanding</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7971,15 +8153,15 @@
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="E9" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>B+</v>
-      </c>
-      <c r="E9" s="15">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
       </c>
       <c r="F9" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>BETTER</v>
+        <v>Good</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7994,15 +8176,15 @@
       </c>
       <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>2.50</v>
+      </c>
+      <c r="E10" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>C+</v>
-      </c>
-      <c r="E10" s="15">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
       </c>
       <c r="F10" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>NOT BAD</v>
+        <v>Average</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8017,15 +8199,15 @@
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>3.50</v>
+      </c>
+      <c r="E11" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>A-</v>
-      </c>
-      <c r="E11" s="15">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
       </c>
       <c r="F11" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>BEST</v>
+        <v>Very Good</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8040,15 +8222,15 @@
       </c>
       <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>D</v>
-      </c>
-      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>F</v>
       </c>
       <c r="F12" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>PASS</v>
+        <v>Poor Marks!</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8063,15 +8245,15 @@
       </c>
       <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>F</v>
-      </c>
-      <c r="E13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="F13" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>FAIL</v>
+        <v>Poor Marks!</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8086,15 +8268,15 @@
       </c>
       <c r="D14" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="E14" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>B-</v>
-      </c>
-      <c r="E14" s="15">
-        <f t="shared" si="1"/>
-        <v>2.75</v>
       </c>
       <c r="F14" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>GOOD</v>
+        <v>Above Average</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8109,15 +8291,15 @@
       </c>
       <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="E15" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>B+</v>
-      </c>
-      <c r="E15" s="15">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
       </c>
       <c r="F15" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>BETTER</v>
+        <v>Good</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8132,15 +8314,15 @@
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>3.50</v>
+      </c>
+      <c r="E16" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>A-</v>
-      </c>
-      <c r="E16" s="15">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
       </c>
       <c r="F16" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>BEST</v>
+        <v>Very Good</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8155,15 +8337,15 @@
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="E17" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
-      </c>
-      <c r="E17" s="15">
-        <f t="shared" si="1"/>
-        <v>3.75</v>
       </c>
       <c r="F17" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>BEST</v>
+        <v>Excellent</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8178,15 +8360,15 @@
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>4.00</v>
+      </c>
+      <c r="E18" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>A+</v>
-      </c>
-      <c r="E18" s="15">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
       <c r="F18" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>EXCELENT</v>
+        <v>Outstanding</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8201,15 +8383,15 @@
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>3.00</v>
+      </c>
+      <c r="E19" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>B</v>
-      </c>
-      <c r="E19" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
       <c r="F19" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>GOOD</v>
+        <v>Satisfactory</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8224,15 +8406,15 @@
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>4.00</v>
+      </c>
+      <c r="E20" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>A+</v>
-      </c>
-      <c r="E20" s="15">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
       <c r="F20" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>EXCELENT</v>
+        <v>Outstanding</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8247,15 +8429,15 @@
       </c>
       <c r="D21" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>D</v>
-      </c>
-      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>F</v>
       </c>
       <c r="F21" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>PASS</v>
+        <v>Poor Marks!</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8272,4 +8454,136 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA70AF7-91CA-421A-AE36-DDDC6B00FE57}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>260000</v>
+      </c>
+      <c r="D2">
+        <f>IF(C2&lt;=250000,C2*0,IF(C2&lt;=500000,250000*0+(C2-250000)*0.15,IF(C2&lt;=1000000,250000*0+(C2-250000)*0.15+(C2-1000000)*0.25,IF(C2&gt;=1000001,250000*0+(C2-250000)*0.15+(C2-500000)*0.25+(C2-100000)*0.3,))))</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>350000</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">IF(C3&lt;=250000,C3*0,IF(C3&lt;=500000,250000*0+(C3-250000)*0.15,IF(C3&lt;=1000000,250000*0+(C3-250000)*0.15+(C3-1000000)*0.25,IF(C3&gt;=1000001,250000*0+(C3-250000)*0.15+(C3-500000)*0.25+(C3-100000)*0.3,))))</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4">
+        <v>460000</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>250000</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>1000000</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2000000</v>
+      </c>
+      <c r="D8">
+        <f>IF(C8&lt;=250000,C8*0,IF(C8&lt;=500000,250000*0+(C8-250000)*0.15,IF(C8&lt;=1000000,250000*0+(C8-250000)*0.15+(C8-1000000)*0.25,IF(C8&gt;=1000001,250000*0+(C8-250000)*0.15+(C8-500000)*0.25+(C8-100000)*0.3,))))</f>
+        <v>1207500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>